--- a/Models/case1_df_test.xlsx
+++ b/Models/case1_df_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -131,16 +131,13 @@
     <t>pred_RNN_ENDO_1_test</t>
   </si>
   <si>
+    <t>model_rnn_unique_1</t>
+  </si>
+  <si>
     <t>pred_RNN_ENDO_2_test</t>
   </si>
   <si>
     <t>pred_MLP_ENDO_1_test</t>
-  </si>
-  <si>
-    <t>pred_RNN_EXO_1_val</t>
-  </si>
-  <si>
-    <t>pred_RNN_EXO_2_val</t>
   </si>
   <si>
     <t>pred_RNN_EXO_1_test</t>
@@ -504,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS89"/>
+  <dimension ref="A1:AR89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,11 +642,8 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:44">
       <c r="A2" s="2" t="n">
         <v>43516</v>
       </c>
@@ -759,34 +753,31 @@
         <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>70.24824523925781</v>
+        <v>75.28842163085938</v>
       </c>
       <c r="AL2" t="n">
-        <v>69.95435333251953</v>
+        <v>85.31777191162109</v>
       </c>
       <c r="AM2" t="n">
-        <v>128.7781524658203</v>
+        <v>85.31777191162109</v>
       </c>
       <c r="AN2" t="n">
-        <v>62.00932693481445</v>
+        <v>98.98429870605469</v>
       </c>
       <c r="AO2" t="n">
-        <v>349.2274780273438</v>
+        <v>145.9509429931641</v>
       </c>
       <c r="AP2" t="n">
-        <v>232.3947143554688</v>
+        <v>182.2503662109375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>349.2274780273438</v>
+        <v>387.5039978027344</v>
       </c>
       <c r="AR2" t="n">
-        <v>232.3947143554688</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>288.738037109375</v>
+        <v>345.4119262695312</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:44">
       <c r="A3" s="2" t="n">
         <v>43517</v>
       </c>
@@ -896,34 +887,31 @@
         <v>35</v>
       </c>
       <c r="AK3" t="n">
-        <v>432.182373046875</v>
+        <v>523.3887939453125</v>
       </c>
       <c r="AL3" t="n">
-        <v>537.592041015625</v>
+        <v>202.8822326660156</v>
       </c>
       <c r="AM3" t="n">
-        <v>442.1201782226562</v>
+        <v>202.8822326660156</v>
       </c>
       <c r="AN3" t="n">
-        <v>557.2433471679688</v>
+        <v>474.8704528808594</v>
       </c>
       <c r="AO3" t="n">
-        <v>308.7152099609375</v>
+        <v>586.2874755859375</v>
       </c>
       <c r="AP3" t="n">
-        <v>294.3027954101562</v>
+        <v>243.3214569091797</v>
       </c>
       <c r="AQ3" t="n">
-        <v>308.7152099609375</v>
+        <v>388.4372863769531</v>
       </c>
       <c r="AR3" t="n">
-        <v>294.3027954101562</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>218.7103881835938</v>
+        <v>238.4547729492188</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:44">
       <c r="A4" s="2" t="n">
         <v>43518</v>
       </c>
@@ -1033,34 +1021,31 @@
         <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>408.2430419921875</v>
+        <v>398.2921752929688</v>
       </c>
       <c r="AL4" t="n">
-        <v>431.4587097167969</v>
+        <v>289.0511474609375</v>
       </c>
       <c r="AM4" t="n">
-        <v>376.8197021484375</v>
+        <v>289.0511474609375</v>
       </c>
       <c r="AN4" t="n">
-        <v>416.251220703125</v>
+        <v>363.8457336425781</v>
       </c>
       <c r="AO4" t="n">
-        <v>347.5251159667969</v>
+        <v>420.1636352539062</v>
       </c>
       <c r="AP4" t="n">
-        <v>337.4758605957031</v>
+        <v>280.4441528320312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>347.5251159667969</v>
+        <v>348.3388061523438</v>
       </c>
       <c r="AR4" t="n">
-        <v>337.4758605957031</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>285.7947998046875</v>
+        <v>283.8646240234375</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:44">
       <c r="A5" s="2" t="n">
         <v>43521</v>
       </c>
@@ -1170,34 +1155,31 @@
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>303.4003601074219</v>
+        <v>329.8839721679688</v>
       </c>
       <c r="AL5" t="n">
-        <v>352.8285827636719</v>
+        <v>292.3955688476562</v>
       </c>
       <c r="AM5" t="n">
-        <v>266.5020751953125</v>
+        <v>292.3955688476562</v>
       </c>
       <c r="AN5" t="n">
-        <v>346.71923828125</v>
+        <v>296.0738525390625</v>
       </c>
       <c r="AO5" t="n">
-        <v>240.1865997314453</v>
+        <v>342.8486938476562</v>
       </c>
       <c r="AP5" t="n">
-        <v>355.8286437988281</v>
+        <v>220.5677185058594</v>
       </c>
       <c r="AQ5" t="n">
-        <v>240.1865997314453</v>
+        <v>226.4367980957031</v>
       </c>
       <c r="AR5" t="n">
-        <v>355.8286437988281</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>333.8824157714844</v>
+        <v>311.1314697265625</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:44">
       <c r="A6" s="2" t="n">
         <v>43522</v>
       </c>
@@ -1307,34 +1289,31 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>383.4651794433594</v>
+        <v>365.316162109375</v>
       </c>
       <c r="AL6" t="n">
-        <v>372.8278503417969</v>
+        <v>328.5332946777344</v>
       </c>
       <c r="AM6" t="n">
-        <v>438.9583129882812</v>
+        <v>328.5332946777344</v>
       </c>
       <c r="AN6" t="n">
-        <v>448.7941589355469</v>
+        <v>426.5450744628906</v>
       </c>
       <c r="AO6" t="n">
-        <v>264.4145812988281</v>
+        <v>507.5937194824219</v>
       </c>
       <c r="AP6" t="n">
-        <v>376.2489318847656</v>
+        <v>286.6610717773438</v>
       </c>
       <c r="AQ6" t="n">
-        <v>264.4145812988281</v>
+        <v>258.3754577636719</v>
       </c>
       <c r="AR6" t="n">
-        <v>376.2489318847656</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>360.7531433105469</v>
+        <v>318.8345336914062</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:44">
       <c r="A7" s="2" t="n">
         <v>43523</v>
       </c>
@@ -1444,34 +1423,31 @@
         <v>319</v>
       </c>
       <c r="AK7" t="n">
-        <v>432.8974609375</v>
+        <v>427.8660583496094</v>
       </c>
       <c r="AL7" t="n">
-        <v>440.2773132324219</v>
+        <v>389.3878479003906</v>
       </c>
       <c r="AM7" t="n">
-        <v>426.6655883789062</v>
+        <v>389.3878479003906</v>
       </c>
       <c r="AN7" t="n">
-        <v>406.8954162597656</v>
+        <v>382.0615234375</v>
       </c>
       <c r="AO7" t="n">
-        <v>420.3784484863281</v>
+        <v>471.3270568847656</v>
       </c>
       <c r="AP7" t="n">
-        <v>405.0906066894531</v>
+        <v>399.6065368652344</v>
       </c>
       <c r="AQ7" t="n">
-        <v>420.3784484863281</v>
+        <v>409.3262634277344</v>
       </c>
       <c r="AR7" t="n">
-        <v>405.0906066894531</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>407.6016235351562</v>
+        <v>342.4856262207031</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:44">
       <c r="A8" s="2" t="n">
         <v>43524</v>
       </c>
@@ -1581,36 +1557,33 @@
         <v>362</v>
       </c>
       <c r="AK8" t="n">
-        <v>508.1153259277344</v>
+        <v>501.340087890625</v>
       </c>
       <c r="AL8" t="n">
-        <v>529.0467529296875</v>
+        <v>405.1013488769531</v>
       </c>
       <c r="AM8" t="n">
-        <v>442.6170654296875</v>
+        <v>405.1013488769531</v>
       </c>
       <c r="AN8" t="n">
-        <v>438.3995056152344</v>
+        <v>438.0994567871094</v>
       </c>
       <c r="AO8" t="n">
-        <v>440.3584289550781</v>
+        <v>497.2763061523438</v>
       </c>
       <c r="AP8" t="n">
-        <v>398.9333801269531</v>
+        <v>413.3592834472656</v>
       </c>
       <c r="AQ8" t="n">
-        <v>440.3584289550781</v>
+        <v>423.4743957519531</v>
       </c>
       <c r="AR8" t="n">
-        <v>398.9333801269531</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>405.1979675292969</v>
+        <v>343.6826171875</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:44">
       <c r="A9" s="2" t="n">
-        <v>43468</v>
+        <v>43525</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1718,36 +1691,33 @@
         <v>79</v>
       </c>
       <c r="AK9" t="n">
-        <v>342.5338439941406</v>
+        <v>316.2482604980469</v>
       </c>
       <c r="AL9" t="n">
-        <v>351.1300964355469</v>
+        <v>361.3525390625</v>
       </c>
       <c r="AM9" t="n">
-        <v>321.703125</v>
+        <v>361.3525390625</v>
       </c>
       <c r="AN9" t="n">
-        <v>257.5431518554688</v>
+        <v>343.7018127441406</v>
       </c>
       <c r="AO9" t="n">
-        <v>372.155517578125</v>
+        <v>288.4577331542969</v>
       </c>
       <c r="AP9" t="n">
-        <v>432.0564880371094</v>
+        <v>379.1376037597656</v>
       </c>
       <c r="AQ9" t="n">
-        <v>372.155517578125</v>
+        <v>350.5696105957031</v>
       </c>
       <c r="AR9" t="n">
-        <v>432.0564880371094</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>429.1040649414062</v>
+        <v>391.0010681152344</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:44">
       <c r="A10" s="2" t="n">
-        <v>43649</v>
+        <v>43531</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1855,36 +1825,33 @@
         <v>254</v>
       </c>
       <c r="AK10" t="n">
-        <v>345.3998413085938</v>
+        <v>331.0687255859375</v>
       </c>
       <c r="AL10" t="n">
-        <v>327.7921447753906</v>
+        <v>342.9769897460938</v>
       </c>
       <c r="AM10" t="n">
-        <v>308.763916015625</v>
+        <v>342.9769897460938</v>
       </c>
       <c r="AN10" t="n">
-        <v>306.5073852539062</v>
+        <v>352.7601928710938</v>
       </c>
       <c r="AO10" t="n">
-        <v>347.7390747070312</v>
+        <v>287.8065795898438</v>
       </c>
       <c r="AP10" t="n">
-        <v>422.8608703613281</v>
+        <v>311.6185607910156</v>
       </c>
       <c r="AQ10" t="n">
-        <v>347.7390747070312</v>
+        <v>313.07470703125</v>
       </c>
       <c r="AR10" t="n">
-        <v>422.8608703613281</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>399.4674987792969</v>
+        <v>388.4534606933594</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:44">
       <c r="A11" s="2" t="n">
-        <v>43680</v>
+        <v>43532</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1992,36 +1959,33 @@
         <v>302</v>
       </c>
       <c r="AK11" t="n">
-        <v>416.4326477050781</v>
+        <v>420.6891174316406</v>
       </c>
       <c r="AL11" t="n">
-        <v>436.661865234375</v>
+        <v>360.8428649902344</v>
       </c>
       <c r="AM11" t="n">
-        <v>441.2516479492188</v>
+        <v>360.8428649902344</v>
       </c>
       <c r="AN11" t="n">
-        <v>484.1194152832031</v>
+        <v>450.1526794433594</v>
       </c>
       <c r="AO11" t="n">
-        <v>379.9081420898438</v>
+        <v>454.2309265136719</v>
       </c>
       <c r="AP11" t="n">
-        <v>419.4248657226562</v>
+        <v>305.0930480957031</v>
       </c>
       <c r="AQ11" t="n">
-        <v>379.9081420898438</v>
+        <v>394.9591369628906</v>
       </c>
       <c r="AR11" t="n">
-        <v>419.4248657226562</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>384.14453125</v>
+        <v>374.5313415527344</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:44">
       <c r="A12" s="2" t="n">
-        <v>43772</v>
+        <v>43535</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2129,36 +2093,33 @@
         <v>296</v>
       </c>
       <c r="AK12" t="n">
-        <v>347.6793212890625</v>
+        <v>331.0299072265625</v>
       </c>
       <c r="AL12" t="n">
-        <v>342.9339904785156</v>
+        <v>314.2442932128906</v>
       </c>
       <c r="AM12" t="n">
-        <v>386.8111572265625</v>
+        <v>314.2442932128906</v>
       </c>
       <c r="AN12" t="n">
-        <v>261.9682312011719</v>
+        <v>299.1337280273438</v>
       </c>
       <c r="AO12" t="n">
-        <v>338.8374328613281</v>
+        <v>284.6640930175781</v>
       </c>
       <c r="AP12" t="n">
-        <v>395.0506286621094</v>
+        <v>356.9412231445312</v>
       </c>
       <c r="AQ12" t="n">
-        <v>338.8374328613281</v>
+        <v>348.705322265625</v>
       </c>
       <c r="AR12" t="n">
-        <v>395.0506286621094</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>350.1712341308594</v>
+        <v>339.7975463867188</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:44">
       <c r="A13" s="2" t="n">
-        <v>43802</v>
+        <v>43536</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2266,34 +2227,31 @@
         <v>327</v>
       </c>
       <c r="AK13" t="n">
-        <v>474.2374267578125</v>
+        <v>478.358154296875</v>
       </c>
       <c r="AL13" t="n">
-        <v>516.9917602539062</v>
+        <v>358.4161376953125</v>
       </c>
       <c r="AM13" t="n">
-        <v>442.7650756835938</v>
+        <v>358.4161376953125</v>
       </c>
       <c r="AN13" t="n">
-        <v>428.3927001953125</v>
+        <v>448.9793090820312</v>
       </c>
       <c r="AO13" t="n">
-        <v>410.4224243164062</v>
+        <v>450.6229553222656</v>
       </c>
       <c r="AP13" t="n">
-        <v>380.8899841308594</v>
+        <v>343.2838134765625</v>
       </c>
       <c r="AQ13" t="n">
-        <v>410.4224243164062</v>
+        <v>417.8627014160156</v>
       </c>
       <c r="AR13" t="n">
-        <v>380.8899841308594</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>344.9970703125</v>
+        <v>342.4455871582031</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:44">
       <c r="A14" s="2" t="n">
         <v>43537</v>
       </c>
@@ -2403,34 +2361,31 @@
         <v>57</v>
       </c>
       <c r="AK14" t="n">
-        <v>383.9837341308594</v>
+        <v>318.9876098632812</v>
       </c>
       <c r="AL14" t="n">
-        <v>355.0761413574219</v>
+        <v>350.16552734375</v>
       </c>
       <c r="AM14" t="n">
-        <v>392.4492492675781</v>
+        <v>350.16552734375</v>
       </c>
       <c r="AN14" t="n">
-        <v>293.4751281738281</v>
+        <v>377.3093872070312</v>
       </c>
       <c r="AO14" t="n">
-        <v>358.7111206054688</v>
+        <v>381.3569030761719</v>
       </c>
       <c r="AP14" t="n">
-        <v>377.7634887695312</v>
+        <v>289.1863403320312</v>
       </c>
       <c r="AQ14" t="n">
-        <v>358.7111206054688</v>
+        <v>360.9806823730469</v>
       </c>
       <c r="AR14" t="n">
-        <v>377.7634887695312</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>355.9793395996094</v>
+        <v>347.8667602539062</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:44">
       <c r="A15" s="2" t="n">
         <v>43538</v>
       </c>
@@ -2540,34 +2495,31 @@
         <v>287</v>
       </c>
       <c r="AK15" t="n">
-        <v>454.4077758789062</v>
+        <v>443.5073547363281</v>
       </c>
       <c r="AL15" t="n">
-        <v>453.7430419921875</v>
+        <v>398.8164978027344</v>
       </c>
       <c r="AM15" t="n">
-        <v>437.6874084472656</v>
+        <v>398.8164978027344</v>
       </c>
       <c r="AN15" t="n">
-        <v>456.2303161621094</v>
+        <v>438.6971130371094</v>
       </c>
       <c r="AO15" t="n">
-        <v>429.0135803222656</v>
+        <v>500.1245727539062</v>
       </c>
       <c r="AP15" t="n">
-        <v>406.9902648925781</v>
+        <v>413.1868286132812</v>
       </c>
       <c r="AQ15" t="n">
-        <v>429.0135803222656</v>
+        <v>406.0584411621094</v>
       </c>
       <c r="AR15" t="n">
-        <v>406.9902648925781</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>396.7817687988281</v>
+        <v>363.5297241210938</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:44">
       <c r="A16" s="2" t="n">
         <v>43539</v>
       </c>
@@ -2677,34 +2629,31 @@
         <v>83</v>
       </c>
       <c r="AK16" t="n">
-        <v>353.0542602539062</v>
+        <v>309.2793273925781</v>
       </c>
       <c r="AL16" t="n">
-        <v>365.0979614257812</v>
+        <v>374.3464050292969</v>
       </c>
       <c r="AM16" t="n">
-        <v>301.758544921875</v>
+        <v>374.3464050292969</v>
       </c>
       <c r="AN16" t="n">
-        <v>267.1314392089844</v>
+        <v>312.0868530273438</v>
       </c>
       <c r="AO16" t="n">
-        <v>339.6773071289062</v>
+        <v>313.4228515625</v>
       </c>
       <c r="AP16" t="n">
-        <v>415.2884826660156</v>
+        <v>302.771728515625</v>
       </c>
       <c r="AQ16" t="n">
-        <v>339.6773071289062</v>
+        <v>320.6273498535156</v>
       </c>
       <c r="AR16" t="n">
-        <v>415.2884826660156</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>400.0746154785156</v>
+        <v>363.6041870117188</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:44">
       <c r="A17" s="2" t="n">
         <v>43544</v>
       </c>
@@ -2814,34 +2763,31 @@
         <v>304</v>
       </c>
       <c r="AK17" t="n">
-        <v>355.2481994628906</v>
+        <v>365.6148681640625</v>
       </c>
       <c r="AL17" t="n">
-        <v>328.9962768554688</v>
+        <v>380.1649780273438</v>
       </c>
       <c r="AM17" t="n">
-        <v>359.8018188476562</v>
+        <v>380.1649780273438</v>
       </c>
       <c r="AN17" t="n">
-        <v>337.6163024902344</v>
+        <v>363.0072021484375</v>
       </c>
       <c r="AO17" t="n">
-        <v>335.5037231445312</v>
+        <v>334.4936218261719</v>
       </c>
       <c r="AP17" t="n">
-        <v>403.3350830078125</v>
+        <v>308.5692443847656</v>
       </c>
       <c r="AQ17" t="n">
-        <v>335.5037231445312</v>
+        <v>319.3781433105469</v>
       </c>
       <c r="AR17" t="n">
-        <v>403.3350830078125</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>392.4857788085938</v>
+        <v>362.2862243652344</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:44">
       <c r="A18" s="2" t="n">
         <v>43545</v>
       </c>
@@ -2951,34 +2897,31 @@
         <v>373</v>
       </c>
       <c r="AK18" t="n">
-        <v>483.04931640625</v>
+        <v>488.4109191894531</v>
       </c>
       <c r="AL18" t="n">
-        <v>480.8392028808594</v>
+        <v>424.8952941894531</v>
       </c>
       <c r="AM18" t="n">
-        <v>450.8184204101562</v>
+        <v>424.8952941894531</v>
       </c>
       <c r="AN18" t="n">
-        <v>556.44287109375</v>
+        <v>486.0204772949219</v>
       </c>
       <c r="AO18" t="n">
-        <v>432.0084838867188</v>
+        <v>560.9196166992188</v>
       </c>
       <c r="AP18" t="n">
-        <v>398.1616516113281</v>
+        <v>425.4980773925781</v>
       </c>
       <c r="AQ18" t="n">
-        <v>432.0084838867188</v>
+        <v>454.9302062988281</v>
       </c>
       <c r="AR18" t="n">
-        <v>398.1616516113281</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>384.8411865234375</v>
+        <v>348.0945129394531</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:44">
       <c r="A19" s="2" t="n">
         <v>43546</v>
       </c>
@@ -3088,34 +3031,31 @@
         <v>310</v>
       </c>
       <c r="AK19" t="n">
-        <v>373.105224609375</v>
+        <v>411.8675231933594</v>
       </c>
       <c r="AL19" t="n">
-        <v>390.5466003417969</v>
+        <v>432.1575927734375</v>
       </c>
       <c r="AM19" t="n">
-        <v>426.5138854980469</v>
+        <v>432.1575927734375</v>
       </c>
       <c r="AN19" t="n">
-        <v>386.5774536132812</v>
+        <v>413.5741577148438</v>
       </c>
       <c r="AO19" t="n">
-        <v>432.4674987792969</v>
+        <v>448.1955261230469</v>
       </c>
       <c r="AP19" t="n">
-        <v>391.2407531738281</v>
+        <v>373.3495178222656</v>
       </c>
       <c r="AQ19" t="n">
-        <v>432.4674987792969</v>
+        <v>415.6441650390625</v>
       </c>
       <c r="AR19" t="n">
-        <v>391.2407531738281</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>376.8866577148438</v>
+        <v>346.7281188964844</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:44">
       <c r="A20" s="2" t="n">
         <v>43549</v>
       </c>
@@ -3225,34 +3165,31 @@
         <v>348</v>
       </c>
       <c r="AK20" t="n">
-        <v>418.928466796875</v>
+        <v>405.9482116699219</v>
       </c>
       <c r="AL20" t="n">
-        <v>411.4314880371094</v>
+        <v>385.5161437988281</v>
       </c>
       <c r="AM20" t="n">
-        <v>404.3175048828125</v>
+        <v>385.5161437988281</v>
       </c>
       <c r="AN20" t="n">
-        <v>416.182373046875</v>
+        <v>394.4728393554688</v>
       </c>
       <c r="AO20" t="n">
-        <v>341.3741455078125</v>
+        <v>397.3801879882812</v>
       </c>
       <c r="AP20" t="n">
-        <v>391.3902282714844</v>
+        <v>327.1997375488281</v>
       </c>
       <c r="AQ20" t="n">
-        <v>341.3741455078125</v>
+        <v>307.0837097167969</v>
       </c>
       <c r="AR20" t="n">
-        <v>391.3902282714844</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>370.1675720214844</v>
+        <v>347.7125244140625</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:44">
       <c r="A21" s="2" t="n">
         <v>43550</v>
       </c>
@@ -3362,34 +3299,31 @@
         <v>94</v>
       </c>
       <c r="AK21" t="n">
-        <v>309.4838562011719</v>
+        <v>305.9508361816406</v>
       </c>
       <c r="AL21" t="n">
-        <v>314.5183410644531</v>
+        <v>363.2138061523438</v>
       </c>
       <c r="AM21" t="n">
-        <v>429.6895141601562</v>
+        <v>363.2138061523438</v>
       </c>
       <c r="AN21" t="n">
-        <v>390.6208190917969</v>
+        <v>397.3424072265625</v>
       </c>
       <c r="AO21" t="n">
-        <v>294.3617553710938</v>
+        <v>380.4392700195312</v>
       </c>
       <c r="AP21" t="n">
-        <v>377.9313354492188</v>
+        <v>240.7938079833984</v>
       </c>
       <c r="AQ21" t="n">
-        <v>294.3617553710938</v>
+        <v>302.8806762695312</v>
       </c>
       <c r="AR21" t="n">
-        <v>377.9313354492188</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>367.6212768554688</v>
+        <v>345.2244873046875</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:44">
       <c r="A22" s="2" t="n">
         <v>43551</v>
       </c>
@@ -3499,34 +3433,31 @@
         <v>393</v>
       </c>
       <c r="AK22" t="n">
-        <v>464.4567565917969</v>
+        <v>479.4654235839844</v>
       </c>
       <c r="AL22" t="n">
-        <v>458.0340270996094</v>
+        <v>438.9857788085938</v>
       </c>
       <c r="AM22" t="n">
-        <v>448.7298583984375</v>
+        <v>438.9857788085938</v>
       </c>
       <c r="AN22" t="n">
-        <v>491.78271484375</v>
+        <v>489.2998352050781</v>
       </c>
       <c r="AO22" t="n">
-        <v>438.8948974609375</v>
+        <v>552.2721557617188</v>
       </c>
       <c r="AP22" t="n">
-        <v>400.6853637695312</v>
+        <v>342.1961364746094</v>
       </c>
       <c r="AQ22" t="n">
-        <v>438.8948974609375</v>
+        <v>442.41015625</v>
       </c>
       <c r="AR22" t="n">
-        <v>400.6853637695312</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>376.9678344726562</v>
+        <v>359.0856018066406</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:44">
       <c r="A23" s="2" t="n">
         <v>43552</v>
       </c>
@@ -3636,34 +3567,31 @@
         <v>356</v>
       </c>
       <c r="AK23" t="n">
-        <v>487.4779052734375</v>
+        <v>504.8160400390625</v>
       </c>
       <c r="AL23" t="n">
-        <v>492.2955932617188</v>
+        <v>441.5380554199219</v>
       </c>
       <c r="AM23" t="n">
-        <v>441.9099731445312</v>
+        <v>441.5380554199219</v>
       </c>
       <c r="AN23" t="n">
-        <v>487.791015625</v>
+        <v>463.6261291503906</v>
       </c>
       <c r="AO23" t="n">
-        <v>469.1509094238281</v>
+        <v>514.5506591796875</v>
       </c>
       <c r="AP23" t="n">
-        <v>390.3536376953125</v>
+        <v>381.9335632324219</v>
       </c>
       <c r="AQ23" t="n">
-        <v>469.1509094238281</v>
+        <v>424.1849975585938</v>
       </c>
       <c r="AR23" t="n">
-        <v>390.3536376953125</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>400.7579040527344</v>
+        <v>352.1791381835938</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:44">
       <c r="A24" s="2" t="n">
         <v>43553</v>
       </c>
@@ -3773,36 +3701,33 @@
         <v>105</v>
       </c>
       <c r="AK24" t="n">
-        <v>393.20751953125</v>
+        <v>354.6581115722656</v>
       </c>
       <c r="AL24" t="n">
-        <v>395.4739685058594</v>
+        <v>409.2276306152344</v>
       </c>
       <c r="AM24" t="n">
-        <v>433.9093322753906</v>
+        <v>409.2276306152344</v>
       </c>
       <c r="AN24" t="n">
-        <v>340.3282165527344</v>
+        <v>359.4489135742188</v>
       </c>
       <c r="AO24" t="n">
-        <v>387.1781005859375</v>
+        <v>326.2586975097656</v>
       </c>
       <c r="AP24" t="n">
-        <v>392.7633972167969</v>
+        <v>327.1132202148438</v>
       </c>
       <c r="AQ24" t="n">
-        <v>387.1781005859375</v>
+        <v>344.3207702636719</v>
       </c>
       <c r="AR24" t="n">
-        <v>392.7633972167969</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>403.1263122558594</v>
+        <v>348.1163635253906</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:44">
       <c r="A25" s="2" t="n">
-        <v>43469</v>
+        <v>43556</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -3910,36 +3835,33 @@
         <v>215</v>
       </c>
       <c r="AK25" t="n">
-        <v>371.3176879882812</v>
+        <v>349.3288269042969</v>
       </c>
       <c r="AL25" t="n">
-        <v>315.8919067382812</v>
+        <v>393.8371276855469</v>
       </c>
       <c r="AM25" t="n">
-        <v>361.125244140625</v>
+        <v>393.8371276855469</v>
       </c>
       <c r="AN25" t="n">
-        <v>346.7707214355469</v>
+        <v>370.2987060546875</v>
       </c>
       <c r="AO25" t="n">
-        <v>342.311279296875</v>
+        <v>345.7270812988281</v>
       </c>
       <c r="AP25" t="n">
-        <v>428.1955871582031</v>
+        <v>336.8250732421875</v>
       </c>
       <c r="AQ25" t="n">
-        <v>342.311279296875</v>
+        <v>347.2002868652344</v>
       </c>
       <c r="AR25" t="n">
-        <v>428.1955871582031</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>392.241943359375</v>
+        <v>396.1674499511719</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:44">
       <c r="A26" s="2" t="n">
-        <v>43500</v>
+        <v>43557</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4047,36 +3969,33 @@
         <v>412</v>
       </c>
       <c r="AK26" t="n">
-        <v>474.9454956054688</v>
+        <v>505.4244995117188</v>
       </c>
       <c r="AL26" t="n">
-        <v>491.8435363769531</v>
+        <v>434.7210388183594</v>
       </c>
       <c r="AM26" t="n">
-        <v>442.818603515625</v>
+        <v>434.7210388183594</v>
       </c>
       <c r="AN26" t="n">
-        <v>524.2243041992188</v>
+        <v>456.89892578125</v>
       </c>
       <c r="AO26" t="n">
-        <v>414.2113647460938</v>
+        <v>506.6423645019531</v>
       </c>
       <c r="AP26" t="n">
-        <v>427.5300903320312</v>
+        <v>357.7059631347656</v>
       </c>
       <c r="AQ26" t="n">
-        <v>414.2113647460938</v>
+        <v>437.6463928222656</v>
       </c>
       <c r="AR26" t="n">
-        <v>427.5300903320312</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>382.2311401367188</v>
+        <v>397.1222534179688</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:44">
       <c r="A27" s="2" t="n">
-        <v>43528</v>
+        <v>43558</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4184,34 +4103,31 @@
         <v>366</v>
       </c>
       <c r="AK27" t="n">
-        <v>434.6083679199219</v>
+        <v>462.5907592773438</v>
       </c>
       <c r="AL27" t="n">
-        <v>440.6257934570312</v>
+        <v>438.6824645996094</v>
       </c>
       <c r="AM27" t="n">
-        <v>438.0032653808594</v>
+        <v>438.6824645996094</v>
       </c>
       <c r="AN27" t="n">
-        <v>454.7902221679688</v>
+        <v>419.7241821289062</v>
       </c>
       <c r="AO27" t="n">
-        <v>457.5128479003906</v>
+        <v>507.2357482910156</v>
       </c>
       <c r="AP27" t="n">
-        <v>421.211669921875</v>
+        <v>435.0469970703125</v>
       </c>
       <c r="AQ27" t="n">
-        <v>457.5128479003906</v>
+        <v>462.7654113769531</v>
       </c>
       <c r="AR27" t="n">
-        <v>421.211669921875</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>401.9346008300781</v>
+        <v>388.0419006347656</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:44">
       <c r="A28" s="2" t="n">
         <v>43559</v>
       </c>
@@ -4321,36 +4237,33 @@
         <v>348</v>
       </c>
       <c r="AK28" t="n">
-        <v>520.5095825195312</v>
+        <v>504.7655639648438</v>
       </c>
       <c r="AL28" t="n">
-        <v>509.2974853515625</v>
+        <v>439.9659729003906</v>
       </c>
       <c r="AM28" t="n">
-        <v>442.4645080566406</v>
+        <v>439.9659729003906</v>
       </c>
       <c r="AN28" t="n">
-        <v>490.8735961914062</v>
+        <v>441.1826782226562</v>
       </c>
       <c r="AO28" t="n">
-        <v>468.94189453125</v>
+        <v>533.6367797851562</v>
       </c>
       <c r="AP28" t="n">
-        <v>419.8658142089844</v>
+        <v>461.628173828125</v>
       </c>
       <c r="AQ28" t="n">
-        <v>468.94189453125</v>
+        <v>438.5023193359375</v>
       </c>
       <c r="AR28" t="n">
-        <v>419.8658142089844</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>420.11669921875</v>
+        <v>390.6256713867188</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:44">
       <c r="A29" s="2" t="n">
-        <v>43589</v>
+        <v>43560</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -4458,36 +4371,33 @@
         <v>74</v>
       </c>
       <c r="AK29" t="n">
-        <v>312.8831787109375</v>
+        <v>308.496826171875</v>
       </c>
       <c r="AL29" t="n">
-        <v>339.4410095214844</v>
+        <v>393.927001953125</v>
       </c>
       <c r="AM29" t="n">
-        <v>309.7171020507812</v>
+        <v>393.927001953125</v>
       </c>
       <c r="AN29" t="n">
-        <v>293.0612182617188</v>
+        <v>306.1255493164062</v>
       </c>
       <c r="AO29" t="n">
-        <v>350.8421630859375</v>
+        <v>272.8895874023438</v>
       </c>
       <c r="AP29" t="n">
-        <v>420.5001220703125</v>
+        <v>303.9755859375</v>
       </c>
       <c r="AQ29" t="n">
-        <v>350.8421630859375</v>
+        <v>317.7514038085938</v>
       </c>
       <c r="AR29" t="n">
-        <v>420.5001220703125</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>427.0864868164062</v>
+        <v>402.2892456054688</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:44">
       <c r="A30" s="2" t="n">
-        <v>43681</v>
+        <v>43563</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4595,36 +4505,33 @@
         <v>282</v>
       </c>
       <c r="AK30" t="n">
-        <v>380.7046203613281</v>
+        <v>383.7066650390625</v>
       </c>
       <c r="AL30" t="n">
-        <v>355.6570739746094</v>
+        <v>382.7481689453125</v>
       </c>
       <c r="AM30" t="n">
-        <v>345.2973937988281</v>
+        <v>382.7481689453125</v>
       </c>
       <c r="AN30" t="n">
-        <v>345.9357299804688</v>
+        <v>366.0096130371094</v>
       </c>
       <c r="AO30" t="n">
-        <v>345.4710998535156</v>
+        <v>332.4316711425781</v>
       </c>
       <c r="AP30" t="n">
-        <v>431.4295959472656</v>
+        <v>324.7070007324219</v>
       </c>
       <c r="AQ30" t="n">
-        <v>345.4710998535156</v>
+        <v>311.9104919433594</v>
       </c>
       <c r="AR30" t="n">
-        <v>431.4295959472656</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>419.215576171875</v>
+        <v>391.3908386230469</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:44">
       <c r="A31" s="2" t="n">
-        <v>43712</v>
+        <v>43564</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4732,36 +4639,33 @@
         <v>383</v>
       </c>
       <c r="AK31" t="n">
-        <v>469.6162719726562</v>
+        <v>490.9588317871094</v>
       </c>
       <c r="AL31" t="n">
-        <v>482.7770385742188</v>
+        <v>417.4732360839844</v>
       </c>
       <c r="AM31" t="n">
-        <v>442.5848693847656</v>
+        <v>417.4732360839844</v>
       </c>
       <c r="AN31" t="n">
-        <v>515.1107177734375</v>
+        <v>456.2879638671875</v>
       </c>
       <c r="AO31" t="n">
-        <v>402.2062072753906</v>
+        <v>488.6446228027344</v>
       </c>
       <c r="AP31" t="n">
-        <v>408.8780212402344</v>
+        <v>368.2857971191406</v>
       </c>
       <c r="AQ31" t="n">
-        <v>402.2062072753906</v>
+        <v>424.7952575683594</v>
       </c>
       <c r="AR31" t="n">
-        <v>408.8780212402344</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>387.8423156738281</v>
+        <v>377.5622863769531</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:44">
       <c r="A32" s="2" t="n">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4869,36 +4773,33 @@
         <v>330</v>
       </c>
       <c r="AK32" t="n">
-        <v>445.5761108398438</v>
+        <v>443.1847534179688</v>
       </c>
       <c r="AL32" t="n">
-        <v>440.4872131347656</v>
+        <v>432.5005798339844</v>
       </c>
       <c r="AM32" t="n">
-        <v>442.6606750488281</v>
+        <v>432.5005798339844</v>
       </c>
       <c r="AN32" t="n">
-        <v>437.598876953125</v>
+        <v>455.8760681152344</v>
       </c>
       <c r="AO32" t="n">
-        <v>463.5054626464844</v>
+        <v>494.7304992675781</v>
       </c>
       <c r="AP32" t="n">
-        <v>398.5774230957031</v>
+        <v>404.2996520996094</v>
       </c>
       <c r="AQ32" t="n">
-        <v>463.5054626464844</v>
+        <v>455.15869140625</v>
       </c>
       <c r="AR32" t="n">
-        <v>398.5774230957031</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>377.5403747558594</v>
+        <v>371.4535827636719</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:44">
       <c r="A33" s="2" t="n">
-        <v>43773</v>
+        <v>43566</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -5006,36 +4907,33 @@
         <v>296</v>
       </c>
       <c r="AK33" t="n">
-        <v>485.0670776367188</v>
+        <v>476.4915161132812</v>
       </c>
       <c r="AL33" t="n">
-        <v>477.074951171875</v>
+        <v>428.4849548339844</v>
       </c>
       <c r="AM33" t="n">
-        <v>439.8168334960938</v>
+        <v>428.4849548339844</v>
       </c>
       <c r="AN33" t="n">
-        <v>479.1741333007812</v>
+        <v>433.8519592285156</v>
       </c>
       <c r="AO33" t="n">
-        <v>450.8904724121094</v>
+        <v>514.75390625</v>
       </c>
       <c r="AP33" t="n">
-        <v>401.8937072753906</v>
+        <v>433.9963989257812</v>
       </c>
       <c r="AQ33" t="n">
-        <v>450.8904724121094</v>
+        <v>424.7731323242188</v>
       </c>
       <c r="AR33" t="n">
-        <v>401.8937072753906</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>399.8537292480469</v>
+        <v>365.5274963378906</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:44">
       <c r="A34" s="2" t="n">
-        <v>43803</v>
+        <v>43567</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -5143,34 +5041,31 @@
         <v>68</v>
       </c>
       <c r="AK34" t="n">
-        <v>311.0264892578125</v>
+        <v>298.9096374511719</v>
       </c>
       <c r="AL34" t="n">
-        <v>339.7612609863281</v>
+        <v>384.9933776855469</v>
       </c>
       <c r="AM34" t="n">
-        <v>263.2005920410156</v>
+        <v>384.9933776855469</v>
       </c>
       <c r="AN34" t="n">
-        <v>284.26220703125</v>
+        <v>291.0597229003906</v>
       </c>
       <c r="AO34" t="n">
-        <v>328.5982666015625</v>
+        <v>288.5272216796875</v>
       </c>
       <c r="AP34" t="n">
-        <v>401.3735046386719</v>
+        <v>292.0264587402344</v>
       </c>
       <c r="AQ34" t="n">
-        <v>328.5982666015625</v>
+        <v>315.3078308105469</v>
       </c>
       <c r="AR34" t="n">
-        <v>401.3735046386719</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>383.6806030273438</v>
+        <v>370.647216796875</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:44">
       <c r="A35" s="2" t="n">
         <v>43570</v>
       </c>
@@ -5280,34 +5175,31 @@
         <v>291</v>
       </c>
       <c r="AK35" t="n">
-        <v>355.7057495117188</v>
+        <v>370.2600708007812</v>
       </c>
       <c r="AL35" t="n">
-        <v>338.6833190917969</v>
+        <v>378.594970703125</v>
       </c>
       <c r="AM35" t="n">
-        <v>339.1879272460938</v>
+        <v>378.594970703125</v>
       </c>
       <c r="AN35" t="n">
-        <v>323.76611328125</v>
+        <v>356.5552673339844</v>
       </c>
       <c r="AO35" t="n">
-        <v>333.1227416992188</v>
+        <v>309.7550048828125</v>
       </c>
       <c r="AP35" t="n">
-        <v>397.440673828125</v>
+        <v>341.9900817871094</v>
       </c>
       <c r="AQ35" t="n">
-        <v>333.1227416992188</v>
+        <v>325.4336853027344</v>
       </c>
       <c r="AR35" t="n">
-        <v>397.440673828125</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>380.9336242675781</v>
+        <v>367.5669860839844</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:44">
       <c r="A36" s="2" t="n">
         <v>43571</v>
       </c>
@@ -5417,34 +5309,31 @@
         <v>412</v>
       </c>
       <c r="AK36" t="n">
-        <v>486.0021362304688</v>
+        <v>495.8111572265625</v>
       </c>
       <c r="AL36" t="n">
-        <v>499.1457824707031</v>
+        <v>407.6116333007812</v>
       </c>
       <c r="AM36" t="n">
-        <v>439.4474792480469</v>
+        <v>407.6116333007812</v>
       </c>
       <c r="AN36" t="n">
-        <v>490.4553527832031</v>
+        <v>448.4207458496094</v>
       </c>
       <c r="AO36" t="n">
-        <v>403.6177673339844</v>
+        <v>489.8643493652344</v>
       </c>
       <c r="AP36" t="n">
-        <v>390.579833984375</v>
+        <v>374.5597534179688</v>
       </c>
       <c r="AQ36" t="n">
-        <v>403.6177673339844</v>
+        <v>415.5462951660156</v>
       </c>
       <c r="AR36" t="n">
-        <v>390.579833984375</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>373.8095092773438</v>
+        <v>359.1482543945312</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:44">
       <c r="A37" s="2" t="n">
         <v>43572</v>
       </c>
@@ -5554,34 +5443,31 @@
         <v>304</v>
       </c>
       <c r="AK37" t="n">
-        <v>408.7266540527344</v>
+        <v>424.4058837890625</v>
       </c>
       <c r="AL37" t="n">
-        <v>421.0789489746094</v>
+        <v>407.3089294433594</v>
       </c>
       <c r="AM37" t="n">
-        <v>429.4814758300781</v>
+        <v>407.3089294433594</v>
       </c>
       <c r="AN37" t="n">
-        <v>413.9463806152344</v>
+        <v>391.7351379394531</v>
       </c>
       <c r="AO37" t="n">
-        <v>436.0765380859375</v>
+        <v>461.6925964355469</v>
       </c>
       <c r="AP37" t="n">
-        <v>372.4322509765625</v>
+        <v>378.8890686035156</v>
       </c>
       <c r="AQ37" t="n">
-        <v>436.0765380859375</v>
+        <v>415.37353515625</v>
       </c>
       <c r="AR37" t="n">
-        <v>372.4322509765625</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>371.3206481933594</v>
+        <v>349.8999633789062</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:44">
       <c r="A38" s="2" t="n">
         <v>43573</v>
       </c>
@@ -5691,34 +5577,31 @@
         <v>292</v>
       </c>
       <c r="AK38" t="n">
-        <v>488.6077880859375</v>
+        <v>474.8703308105469</v>
       </c>
       <c r="AL38" t="n">
-        <v>484.180419921875</v>
+        <v>414.6737060546875</v>
       </c>
       <c r="AM38" t="n">
-        <v>442.488037109375</v>
+        <v>414.6737060546875</v>
       </c>
       <c r="AN38" t="n">
-        <v>472.6019287109375</v>
+        <v>444.2046813964844</v>
       </c>
       <c r="AO38" t="n">
-        <v>430.658203125</v>
+        <v>505.8662719726562</v>
       </c>
       <c r="AP38" t="n">
-        <v>364.2782287597656</v>
+        <v>402.5904541015625</v>
       </c>
       <c r="AQ38" t="n">
-        <v>430.658203125</v>
+        <v>399.8028259277344</v>
       </c>
       <c r="AR38" t="n">
-        <v>364.2782287597656</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>354.1909790039062</v>
+        <v>342.6087341308594</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:44">
       <c r="A39" s="2" t="n">
         <v>43577</v>
       </c>
@@ -5828,34 +5711,31 @@
         <v>62</v>
       </c>
       <c r="AK39" t="n">
-        <v>312.5294189453125</v>
+        <v>272.2002868652344</v>
       </c>
       <c r="AL39" t="n">
-        <v>270.3143005371094</v>
+        <v>362.6923828125</v>
       </c>
       <c r="AM39" t="n">
-        <v>397.7880554199219</v>
+        <v>362.6923828125</v>
       </c>
       <c r="AN39" t="n">
-        <v>282.3069763183594</v>
+        <v>294.6111450195312</v>
       </c>
       <c r="AO39" t="n">
-        <v>315.4964294433594</v>
+        <v>255.0077972412109</v>
       </c>
       <c r="AP39" t="n">
-        <v>362.9901733398438</v>
+        <v>242.0563049316406</v>
       </c>
       <c r="AQ39" t="n">
-        <v>315.4964294433594</v>
+        <v>284.6611938476562</v>
       </c>
       <c r="AR39" t="n">
-        <v>362.9901733398438</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>367.9689636230469</v>
+        <v>348.6054382324219</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:44">
       <c r="A40" s="2" t="n">
         <v>43578</v>
       </c>
@@ -5965,34 +5845,31 @@
         <v>269</v>
       </c>
       <c r="AK40" t="n">
-        <v>417.1204833984375</v>
+        <v>427.3737182617188</v>
       </c>
       <c r="AL40" t="n">
-        <v>411.0508728027344</v>
+        <v>398.8672790527344</v>
       </c>
       <c r="AM40" t="n">
-        <v>431.8772583007812</v>
+        <v>398.8672790527344</v>
       </c>
       <c r="AN40" t="n">
-        <v>443.2549438476562</v>
+        <v>436.0486755371094</v>
       </c>
       <c r="AO40" t="n">
-        <v>378.6856689453125</v>
+        <v>448.6717224121094</v>
       </c>
       <c r="AP40" t="n">
-        <v>390.7570190429688</v>
+        <v>307.15576171875</v>
       </c>
       <c r="AQ40" t="n">
-        <v>378.6856689453125</v>
+        <v>374.5965576171875</v>
       </c>
       <c r="AR40" t="n">
-        <v>390.7570190429688</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>392.0408020019531</v>
+        <v>354.9150085449219</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:44">
       <c r="A41" s="2" t="n">
         <v>43579</v>
       </c>
@@ -6102,34 +5979,31 @@
         <v>358</v>
       </c>
       <c r="AK41" t="n">
-        <v>422.1319885253906</v>
+        <v>472.2023620605469</v>
       </c>
       <c r="AL41" t="n">
-        <v>422.8387756347656</v>
+        <v>434.9176635742188</v>
       </c>
       <c r="AM41" t="n">
-        <v>435.0029907226562</v>
+        <v>434.9176635742188</v>
       </c>
       <c r="AN41" t="n">
-        <v>449.52734375</v>
+        <v>413.7081604003906</v>
       </c>
       <c r="AO41" t="n">
-        <v>434.114990234375</v>
+        <v>455.4749145507812</v>
       </c>
       <c r="AP41" t="n">
-        <v>391.08349609375</v>
+        <v>348.825439453125</v>
       </c>
       <c r="AQ41" t="n">
-        <v>434.114990234375</v>
+        <v>408.8194274902344</v>
       </c>
       <c r="AR41" t="n">
-        <v>391.08349609375</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>403.1149597167969</v>
+        <v>352.7475280761719</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:44">
       <c r="A42" s="2" t="n">
         <v>43580</v>
       </c>
@@ -6239,34 +6113,31 @@
         <v>343</v>
       </c>
       <c r="AK42" t="n">
-        <v>477.3348693847656</v>
+        <v>477.9598083496094</v>
       </c>
       <c r="AL42" t="n">
-        <v>475.4620666503906</v>
+        <v>425.9201354980469</v>
       </c>
       <c r="AM42" t="n">
-        <v>435.3740844726562</v>
+        <v>425.9201354980469</v>
       </c>
       <c r="AN42" t="n">
-        <v>425.4400329589844</v>
+        <v>448.93408203125</v>
       </c>
       <c r="AO42" t="n">
-        <v>442.8919372558594</v>
+        <v>453.5343017578125</v>
       </c>
       <c r="AP42" t="n">
-        <v>385.7536926269531</v>
+        <v>387.8186340332031</v>
       </c>
       <c r="AQ42" t="n">
-        <v>442.8919372558594</v>
+        <v>409.1145935058594</v>
       </c>
       <c r="AR42" t="n">
-        <v>385.7536926269531</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>401.1116333007812</v>
+        <v>346.3039855957031</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:44">
       <c r="A43" s="2" t="n">
         <v>43581</v>
       </c>
@@ -6376,34 +6247,31 @@
         <v>165</v>
       </c>
       <c r="AK43" t="n">
-        <v>352.3487854003906</v>
+        <v>369.4375915527344</v>
       </c>
       <c r="AL43" t="n">
-        <v>365.510986328125</v>
+        <v>402.0790100097656</v>
       </c>
       <c r="AM43" t="n">
-        <v>343.4010925292969</v>
+        <v>402.0790100097656</v>
       </c>
       <c r="AN43" t="n">
-        <v>325.8611450195312</v>
+        <v>324.5454711914062</v>
       </c>
       <c r="AO43" t="n">
-        <v>387.4638061523438</v>
+        <v>301.3857116699219</v>
       </c>
       <c r="AP43" t="n">
-        <v>385.6861572265625</v>
+        <v>343.4425964355469</v>
       </c>
       <c r="AQ43" t="n">
-        <v>387.4638061523438</v>
+        <v>359.5421142578125</v>
       </c>
       <c r="AR43" t="n">
-        <v>385.6861572265625</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>401.5515441894531</v>
+        <v>344.6384887695312</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:44">
       <c r="A44" s="2" t="n">
         <v>43584</v>
       </c>
@@ -6513,34 +6381,31 @@
         <v>245</v>
       </c>
       <c r="AK44" t="n">
-        <v>359.1671447753906</v>
+        <v>360.3361511230469</v>
       </c>
       <c r="AL44" t="n">
-        <v>334.7425231933594</v>
+        <v>369.461669921875</v>
       </c>
       <c r="AM44" t="n">
-        <v>355.2966918945312</v>
+        <v>369.461669921875</v>
       </c>
       <c r="AN44" t="n">
-        <v>352.2129516601562</v>
+        <v>354.7768859863281</v>
       </c>
       <c r="AO44" t="n">
-        <v>330.1159973144531</v>
+        <v>341.3960266113281</v>
       </c>
       <c r="AP44" t="n">
-        <v>373.4979248046875</v>
+        <v>332.7767639160156</v>
       </c>
       <c r="AQ44" t="n">
-        <v>330.1159973144531</v>
+        <v>309.9502868652344</v>
       </c>
       <c r="AR44" t="n">
-        <v>373.4979248046875</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>376.7593994140625</v>
+        <v>329.9672546386719</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:44">
       <c r="A45" s="2" t="n">
         <v>43585</v>
       </c>
@@ -6650,36 +6515,33 @@
         <v>328</v>
       </c>
       <c r="AK45" t="n">
-        <v>437.4910583496094</v>
+        <v>460.188232421875</v>
       </c>
       <c r="AL45" t="n">
-        <v>445.7603759765625</v>
+        <v>399.4282836914062</v>
       </c>
       <c r="AM45" t="n">
-        <v>435.9391174316406</v>
+        <v>399.4282836914062</v>
       </c>
       <c r="AN45" t="n">
-        <v>471.113525390625</v>
+        <v>441.7894592285156</v>
       </c>
       <c r="AO45" t="n">
-        <v>393.4747619628906</v>
+        <v>452.900634765625</v>
       </c>
       <c r="AP45" t="n">
-        <v>374.0681457519531</v>
+        <v>375.6300659179688</v>
       </c>
       <c r="AQ45" t="n">
-        <v>393.4747619628906</v>
+        <v>399.9775390625</v>
       </c>
       <c r="AR45" t="n">
-        <v>374.0681457519531</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>375.5244750976562</v>
+        <v>325.4117736816406</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:44">
       <c r="A46" s="2" t="n">
-        <v>43501</v>
+        <v>43587</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -6787,36 +6649,33 @@
         <v>318</v>
       </c>
       <c r="AK46" t="n">
-        <v>412.4936828613281</v>
+        <v>434.6463317871094</v>
       </c>
       <c r="AL46" t="n">
-        <v>422.9917297363281</v>
+        <v>405.8560485839844</v>
       </c>
       <c r="AM46" t="n">
-        <v>428.9368591308594</v>
+        <v>405.8560485839844</v>
       </c>
       <c r="AN46" t="n">
-        <v>419.6233520507812</v>
+        <v>385.0028991699219</v>
       </c>
       <c r="AO46" t="n">
-        <v>440.3607177734375</v>
+        <v>469.4385681152344</v>
       </c>
       <c r="AP46" t="n">
-        <v>403.0679626464844</v>
+        <v>384.2985229492188</v>
       </c>
       <c r="AQ46" t="n">
-        <v>440.3607177734375</v>
+        <v>439.9437866210938</v>
       </c>
       <c r="AR46" t="n">
-        <v>403.0679626464844</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>390.2757263183594</v>
+        <v>384.5271911621094</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:44">
       <c r="A47" s="2" t="n">
-        <v>43529</v>
+        <v>43588</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -6924,36 +6783,33 @@
         <v>297</v>
       </c>
       <c r="AK47" t="n">
-        <v>475.7277221679688</v>
+        <v>464.9317932128906</v>
       </c>
       <c r="AL47" t="n">
-        <v>474.2581176757812</v>
+        <v>408.4308471679688</v>
       </c>
       <c r="AM47" t="n">
-        <v>439.5401306152344</v>
+        <v>408.4308471679688</v>
       </c>
       <c r="AN47" t="n">
-        <v>443.3660278320312</v>
+        <v>430.5172119140625</v>
       </c>
       <c r="AO47" t="n">
-        <v>456.3294067382812</v>
+        <v>465.2567138671875</v>
       </c>
       <c r="AP47" t="n">
-        <v>410.1419372558594</v>
+        <v>443.7359008789062</v>
       </c>
       <c r="AQ47" t="n">
-        <v>456.3294067382812</v>
+        <v>451.5720825195312</v>
       </c>
       <c r="AR47" t="n">
-        <v>410.1419372558594</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>409.1160278320312</v>
+        <v>376.1887512207031</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:44">
       <c r="A48" s="2" t="n">
-        <v>43621</v>
+        <v>43591</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -7061,36 +6917,33 @@
         <v>85</v>
       </c>
       <c r="AK48" t="n">
-        <v>314.9336242675781</v>
+        <v>269.8862915039062</v>
       </c>
       <c r="AL48" t="n">
-        <v>290.7548828125</v>
+        <v>332.9694519042969</v>
       </c>
       <c r="AM48" t="n">
-        <v>354.1731567382812</v>
+        <v>332.9694519042969</v>
       </c>
       <c r="AN48" t="n">
-        <v>308.1600036621094</v>
+        <v>310.7059326171875</v>
       </c>
       <c r="AO48" t="n">
-        <v>300.2882690429688</v>
+        <v>259.0805969238281</v>
       </c>
       <c r="AP48" t="n">
-        <v>383.2833557128906</v>
+        <v>263.6422729492188</v>
       </c>
       <c r="AQ48" t="n">
-        <v>300.2882690429688</v>
+        <v>287.9368896484375</v>
       </c>
       <c r="AR48" t="n">
-        <v>383.2833557128906</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>362.8381042480469</v>
+        <v>367.5826721191406</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:44">
       <c r="A49" s="2" t="n">
-        <v>43651</v>
+        <v>43592</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -7198,36 +7051,33 @@
         <v>239</v>
       </c>
       <c r="AK49" t="n">
-        <v>424.195556640625</v>
+        <v>419.8790893554688</v>
       </c>
       <c r="AL49" t="n">
-        <v>432.0305480957031</v>
+        <v>378.4909362792969</v>
       </c>
       <c r="AM49" t="n">
-        <v>441.4812316894531</v>
+        <v>378.4909362792969</v>
       </c>
       <c r="AN49" t="n">
-        <v>488.1401977539062</v>
+        <v>452.7082214355469</v>
       </c>
       <c r="AO49" t="n">
-        <v>382.1753234863281</v>
+        <v>472.4427795410156</v>
       </c>
       <c r="AP49" t="n">
-        <v>400.2401733398438</v>
+        <v>338.9976806640625</v>
       </c>
       <c r="AQ49" t="n">
-        <v>382.1753234863281</v>
+        <v>415.3564147949219</v>
       </c>
       <c r="AR49" t="n">
-        <v>400.2401733398438</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>382.1433410644531</v>
+        <v>375.3682250976562</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:44">
       <c r="A50" s="2" t="n">
-        <v>43682</v>
+        <v>43593</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -7335,36 +7185,33 @@
         <v>334</v>
       </c>
       <c r="AK50" t="n">
-        <v>416.7170715332031</v>
+        <v>430.9776611328125</v>
       </c>
       <c r="AL50" t="n">
-        <v>421.6814575195312</v>
+        <v>429.9508361816406</v>
       </c>
       <c r="AM50" t="n">
-        <v>434.115234375</v>
+        <v>429.9508361816406</v>
       </c>
       <c r="AN50" t="n">
-        <v>429.6072387695312</v>
+        <v>406.504150390625</v>
       </c>
       <c r="AO50" t="n">
-        <v>449.9700927734375</v>
+        <v>470.4767456054688</v>
       </c>
       <c r="AP50" t="n">
-        <v>388.3686828613281</v>
+        <v>371.8917541503906</v>
       </c>
       <c r="AQ50" t="n">
-        <v>449.9700927734375</v>
+        <v>463.0064392089844</v>
       </c>
       <c r="AR50" t="n">
-        <v>388.3686828613281</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>360.28564453125</v>
+        <v>358.8926086425781</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:44">
       <c r="A51" s="2" t="n">
-        <v>43713</v>
+        <v>43594</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -7472,36 +7319,33 @@
         <v>305</v>
       </c>
       <c r="AK51" t="n">
-        <v>474.5886840820312</v>
+        <v>461.8347473144531</v>
       </c>
       <c r="AL51" t="n">
-        <v>476.7993469238281</v>
+        <v>410.3900146484375</v>
       </c>
       <c r="AM51" t="n">
-        <v>437.0412292480469</v>
+        <v>410.3900146484375</v>
       </c>
       <c r="AN51" t="n">
-        <v>456.25439453125</v>
+        <v>425.3790588378906</v>
       </c>
       <c r="AO51" t="n">
-        <v>428.7656860351562</v>
+        <v>498.9382629394531</v>
       </c>
       <c r="AP51" t="n">
-        <v>368.8703918457031</v>
+        <v>407.5315551757812</v>
       </c>
       <c r="AQ51" t="n">
-        <v>428.7656860351562</v>
+        <v>420.1303100585938</v>
       </c>
       <c r="AR51" t="n">
-        <v>368.8703918457031</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>330.8770141601562</v>
+        <v>341.8650512695312</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:44">
       <c r="A52" s="2" t="n">
-        <v>43743</v>
+        <v>43595</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -7609,34 +7453,31 @@
         <v>74</v>
       </c>
       <c r="AK52" t="n">
-        <v>359.5982055664062</v>
+        <v>325.5245971679688</v>
       </c>
       <c r="AL52" t="n">
-        <v>371.3482360839844</v>
+        <v>383.9017639160156</v>
       </c>
       <c r="AM52" t="n">
-        <v>324.5704956054688</v>
+        <v>383.9017639160156</v>
       </c>
       <c r="AN52" t="n">
-        <v>303.8694763183594</v>
+        <v>314.9343566894531</v>
       </c>
       <c r="AO52" t="n">
-        <v>333.1316528320312</v>
+        <v>334.6194763183594</v>
       </c>
       <c r="AP52" t="n">
-        <v>370.9709167480469</v>
+        <v>335.39306640625</v>
       </c>
       <c r="AQ52" t="n">
-        <v>333.1316528320312</v>
+        <v>357.1577453613281</v>
       </c>
       <c r="AR52" t="n">
-        <v>370.9709167480469</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>340.1518859863281</v>
+        <v>349.4743957519531</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:44">
       <c r="A53" s="2" t="n">
         <v>43598</v>
       </c>
@@ -7746,34 +7587,31 @@
         <v>278</v>
       </c>
       <c r="AK53" t="n">
-        <v>384.44677734375</v>
+        <v>374.9397277832031</v>
       </c>
       <c r="AL53" t="n">
-        <v>347.4753112792969</v>
+        <v>378.6492004394531</v>
       </c>
       <c r="AM53" t="n">
-        <v>335.1818542480469</v>
+        <v>378.6492004394531</v>
       </c>
       <c r="AN53" t="n">
-        <v>339.8131103515625</v>
+        <v>367.3060913085938</v>
       </c>
       <c r="AO53" t="n">
-        <v>342.6895141601562</v>
+        <v>329.34521484375</v>
       </c>
       <c r="AP53" t="n">
-        <v>398.8436889648438</v>
+        <v>311.4762268066406</v>
       </c>
       <c r="AQ53" t="n">
-        <v>342.6895141601562</v>
+        <v>339.8923034667969</v>
       </c>
       <c r="AR53" t="n">
-        <v>398.8436889648438</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>393.4385375976562</v>
+        <v>361.555908203125</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:44">
       <c r="A54" s="2" t="n">
         <v>43599</v>
       </c>
@@ -7883,34 +7721,31 @@
         <v>387</v>
       </c>
       <c r="AK54" t="n">
-        <v>475.6961669921875</v>
+        <v>481.475341796875</v>
       </c>
       <c r="AL54" t="n">
-        <v>489.1984558105469</v>
+        <v>403.0199890136719</v>
       </c>
       <c r="AM54" t="n">
-        <v>437.3665466308594</v>
+        <v>403.0199890136719</v>
       </c>
       <c r="AN54" t="n">
-        <v>465.4988403320312</v>
+        <v>444.0533447265625</v>
       </c>
       <c r="AO54" t="n">
-        <v>405.9486083984375</v>
+        <v>469.5805358886719</v>
       </c>
       <c r="AP54" t="n">
-        <v>382.9992370605469</v>
+        <v>383.1680603027344</v>
       </c>
       <c r="AQ54" t="n">
-        <v>405.9486083984375</v>
+        <v>446.4797973632812</v>
       </c>
       <c r="AR54" t="n">
-        <v>382.9992370605469</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>377.9573364257812</v>
+        <v>349.0383605957031</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:44">
       <c r="A55" s="2" t="n">
         <v>43600</v>
       </c>
@@ -8020,34 +7855,31 @@
         <v>279</v>
       </c>
       <c r="AK55" t="n">
-        <v>400.6987609863281</v>
+        <v>405.2340087890625</v>
       </c>
       <c r="AL55" t="n">
-        <v>400.8287658691406</v>
+        <v>406.0249633789062</v>
       </c>
       <c r="AM55" t="n">
-        <v>433.0791015625</v>
+        <v>406.0249633789062</v>
       </c>
       <c r="AN55" t="n">
-        <v>412.2084655761719</v>
+        <v>395.1532287597656</v>
       </c>
       <c r="AO55" t="n">
-        <v>423.1871948242188</v>
+        <v>433.7130432128906</v>
       </c>
       <c r="AP55" t="n">
-        <v>365.8858642578125</v>
+        <v>363.3009033203125</v>
       </c>
       <c r="AQ55" t="n">
-        <v>423.1871948242188</v>
+        <v>441.3486022949219</v>
       </c>
       <c r="AR55" t="n">
-        <v>365.8858642578125</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>355.2177734375</v>
+        <v>340.4622497558594</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:44">
       <c r="A56" s="2" t="n">
         <v>43601</v>
       </c>
@@ -8157,34 +7989,31 @@
         <v>336</v>
       </c>
       <c r="AK56" t="n">
-        <v>451.8924560546875</v>
+        <v>403.0523071289062</v>
       </c>
       <c r="AL56" t="n">
-        <v>416.7087097167969</v>
+        <v>340.7911376953125</v>
       </c>
       <c r="AM56" t="n">
-        <v>374.6983642578125</v>
+        <v>340.7911376953125</v>
       </c>
       <c r="AN56" t="n">
-        <v>342.9158325195312</v>
+        <v>420.7541809082031</v>
       </c>
       <c r="AO56" t="n">
-        <v>334.923095703125</v>
+        <v>359.80810546875</v>
       </c>
       <c r="AP56" t="n">
-        <v>349.6479187011719</v>
+        <v>329.0637817382812</v>
       </c>
       <c r="AQ56" t="n">
-        <v>334.923095703125</v>
+        <v>363.4423828125</v>
       </c>
       <c r="AR56" t="n">
-        <v>349.6479187011719</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>316.5321044921875</v>
+        <v>310.8833923339844</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:44">
       <c r="A57" s="2" t="n">
         <v>43602</v>
       </c>
@@ -8294,34 +8123,31 @@
         <v>62</v>
       </c>
       <c r="AK57" t="n">
-        <v>487.7382507324219</v>
+        <v>457.4141540527344</v>
       </c>
       <c r="AL57" t="n">
-        <v>433.2630920410156</v>
+        <v>328.1207885742188</v>
       </c>
       <c r="AM57" t="n">
-        <v>446.5199279785156</v>
+        <v>328.1207885742188</v>
       </c>
       <c r="AN57" t="n">
-        <v>509.2647094726562</v>
+        <v>463.7754516601562</v>
       </c>
       <c r="AO57" t="n">
-        <v>336.8993835449219</v>
+        <v>540.0958862304688</v>
       </c>
       <c r="AP57" t="n">
-        <v>354.1614685058594</v>
+        <v>345.7002563476562</v>
       </c>
       <c r="AQ57" t="n">
-        <v>336.8993835449219</v>
+        <v>418.353271484375</v>
       </c>
       <c r="AR57" t="n">
-        <v>354.1614685058594</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>330.9997253417969</v>
+        <v>306.8790588378906</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:44">
       <c r="A58" s="2" t="n">
         <v>43605</v>
       </c>
@@ -8431,34 +8257,31 @@
         <v>253</v>
       </c>
       <c r="AK58" t="n">
-        <v>354.5785827636719</v>
+        <v>271.7401123046875</v>
       </c>
       <c r="AL58" t="n">
-        <v>284.4315795898438</v>
+        <v>325.4809265136719</v>
       </c>
       <c r="AM58" t="n">
-        <v>391.5185546875</v>
+        <v>325.4809265136719</v>
       </c>
       <c r="AN58" t="n">
-        <v>223.3212738037109</v>
+        <v>331.693359375</v>
       </c>
       <c r="AO58" t="n">
-        <v>337.9262084960938</v>
+        <v>133.3883972167969</v>
       </c>
       <c r="AP58" t="n">
-        <v>343.6341857910156</v>
+        <v>328.3476257324219</v>
       </c>
       <c r="AQ58" t="n">
-        <v>337.9262084960938</v>
+        <v>376.1440734863281</v>
       </c>
       <c r="AR58" t="n">
-        <v>343.6341857910156</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>313.3309631347656</v>
+        <v>300.6053161621094</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:44">
       <c r="A59" s="2" t="n">
         <v>43606</v>
       </c>
@@ -8568,34 +8391,31 @@
         <v>358</v>
       </c>
       <c r="AK59" t="n">
-        <v>458.8607788085938</v>
+        <v>429.7292785644531</v>
       </c>
       <c r="AL59" t="n">
-        <v>481.401123046875</v>
+        <v>364.7297973632812</v>
       </c>
       <c r="AM59" t="n">
-        <v>433.5880126953125</v>
+        <v>364.7297973632812</v>
       </c>
       <c r="AN59" t="n">
-        <v>270.3753051757812</v>
+        <v>440.0629577636719</v>
       </c>
       <c r="AO59" t="n">
-        <v>411.6566772460938</v>
+        <v>388.5570678710938</v>
       </c>
       <c r="AP59" t="n">
-        <v>333.1554870605469</v>
+        <v>398.4802551269531</v>
       </c>
       <c r="AQ59" t="n">
-        <v>411.6566772460938</v>
+        <v>440.4736633300781</v>
       </c>
       <c r="AR59" t="n">
-        <v>333.1554870605469</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>309.9781188964844</v>
+        <v>288.6042175292969</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:44">
       <c r="A60" s="2" t="n">
         <v>43607</v>
       </c>
@@ -8705,34 +8525,31 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>346.2012939453125</v>
+        <v>322.059326171875</v>
       </c>
       <c r="AL60" t="n">
-        <v>323.01806640625</v>
+        <v>322.1676330566406</v>
       </c>
       <c r="AM60" t="n">
-        <v>405.9894714355469</v>
+        <v>322.1676330566406</v>
       </c>
       <c r="AN60" t="n">
-        <v>268.2186889648438</v>
+        <v>385.0478515625</v>
       </c>
       <c r="AO60" t="n">
-        <v>298.7685546875</v>
+        <v>377.3346862792969</v>
       </c>
       <c r="AP60" t="n">
-        <v>327.0334777832031</v>
+        <v>297.5190124511719</v>
       </c>
       <c r="AQ60" t="n">
-        <v>298.7685546875</v>
+        <v>290.9015808105469</v>
       </c>
       <c r="AR60" t="n">
-        <v>327.0334777832031</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>301.06884765625</v>
+        <v>286.4253234863281</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:44">
       <c r="A61" s="2" t="n">
         <v>43608</v>
       </c>
@@ -8842,34 +8659,31 @@
         <v>317</v>
       </c>
       <c r="AK61" t="n">
-        <v>461.8855285644531</v>
+        <v>445.0994262695312</v>
       </c>
       <c r="AL61" t="n">
-        <v>467.6105346679688</v>
+        <v>389.99853515625</v>
       </c>
       <c r="AM61" t="n">
-        <v>436.0760498046875</v>
+        <v>389.99853515625</v>
       </c>
       <c r="AN61" t="n">
-        <v>429.041259765625</v>
+        <v>426.035888671875</v>
       </c>
       <c r="AO61" t="n">
-        <v>421.217529296875</v>
+        <v>466.7679748535156</v>
       </c>
       <c r="AP61" t="n">
-        <v>352.2648010253906</v>
+        <v>425.84814453125</v>
       </c>
       <c r="AQ61" t="n">
-        <v>421.217529296875</v>
+        <v>403.6135559082031</v>
       </c>
       <c r="AR61" t="n">
-        <v>352.2648010253906</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>339.3405456542969</v>
+        <v>310.6482849121094</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:44">
       <c r="A62" s="2" t="n">
         <v>43609</v>
       </c>
@@ -8979,34 +8793,31 @@
         <v>85</v>
       </c>
       <c r="AK62" t="n">
-        <v>320.8428955078125</v>
+        <v>317.7429504394531</v>
       </c>
       <c r="AL62" t="n">
-        <v>338.4873046875</v>
+        <v>368.7153625488281</v>
       </c>
       <c r="AM62" t="n">
-        <v>255.0462493896484</v>
+        <v>368.7153625488281</v>
       </c>
       <c r="AN62" t="n">
-        <v>277.8075561523438</v>
+        <v>276.8668518066406</v>
       </c>
       <c r="AO62" t="n">
-        <v>338.4849243164062</v>
+        <v>278.7243957519531</v>
       </c>
       <c r="AP62" t="n">
-        <v>349.3874206542969</v>
+        <v>357.6173706054688</v>
       </c>
       <c r="AQ62" t="n">
-        <v>338.4849243164062</v>
+        <v>322.4924621582031</v>
       </c>
       <c r="AR62" t="n">
-        <v>349.3874206542969</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>346.8973388671875</v>
+        <v>317.3871765136719</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:44">
       <c r="A63" s="2" t="n">
         <v>43612</v>
       </c>
@@ -9116,34 +8927,31 @@
         <v>244</v>
       </c>
       <c r="AK63" t="n">
-        <v>351.5156860351562</v>
+        <v>341.2255554199219</v>
       </c>
       <c r="AL63" t="n">
-        <v>322.5108337402344</v>
+        <v>358.2544860839844</v>
       </c>
       <c r="AM63" t="n">
-        <v>313.7764282226562</v>
+        <v>358.2544860839844</v>
       </c>
       <c r="AN63" t="n">
-        <v>323.6771545410156</v>
+        <v>343.7331848144531</v>
       </c>
       <c r="AO63" t="n">
-        <v>315.6645812988281</v>
+        <v>303.5067443847656</v>
       </c>
       <c r="AP63" t="n">
-        <v>364.9110412597656</v>
+        <v>312.9625549316406</v>
       </c>
       <c r="AQ63" t="n">
-        <v>315.6645812988281</v>
+        <v>308.3957824707031</v>
       </c>
       <c r="AR63" t="n">
-        <v>364.9110412597656</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>329.40966796875</v>
+        <v>308.6924743652344</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:44">
       <c r="A64" s="2" t="n">
         <v>43613</v>
       </c>
@@ -9253,34 +9061,31 @@
         <v>332</v>
       </c>
       <c r="AK64" t="n">
-        <v>437.8260803222656</v>
+        <v>453.3164672851562</v>
       </c>
       <c r="AL64" t="n">
-        <v>452.5712890625</v>
+        <v>395.157470703125</v>
       </c>
       <c r="AM64" t="n">
-        <v>440.8887939453125</v>
+        <v>395.157470703125</v>
       </c>
       <c r="AN64" t="n">
-        <v>486.9520568847656</v>
+        <v>447.6524353027344</v>
       </c>
       <c r="AO64" t="n">
-        <v>381.5120239257812</v>
+        <v>449.8021850585938</v>
       </c>
       <c r="AP64" t="n">
-        <v>352.0841064453125</v>
+        <v>351.9987487792969</v>
       </c>
       <c r="AQ64" t="n">
-        <v>381.5120239257812</v>
+        <v>419.1449584960938</v>
       </c>
       <c r="AR64" t="n">
-        <v>352.0841064453125</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>330.5333862304688</v>
+        <v>312.6130065917969</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:44">
       <c r="A65" s="2" t="n">
         <v>43614</v>
       </c>
@@ -9390,34 +9195,31 @@
         <v>295</v>
       </c>
       <c r="AK65" t="n">
-        <v>395.9387817382812</v>
+        <v>405.3921508789062</v>
       </c>
       <c r="AL65" t="n">
-        <v>414.5444030761719</v>
+        <v>401.2678527832031</v>
       </c>
       <c r="AM65" t="n">
-        <v>420.0335388183594</v>
+        <v>401.2678527832031</v>
       </c>
       <c r="AN65" t="n">
-        <v>390.5140380859375</v>
+        <v>380.3547973632812</v>
       </c>
       <c r="AO65" t="n">
-        <v>432.8501281738281</v>
+        <v>437.2436828613281</v>
       </c>
       <c r="AP65" t="n">
-        <v>362.8514099121094</v>
+        <v>416.1724548339844</v>
       </c>
       <c r="AQ65" t="n">
-        <v>432.8501281738281</v>
+        <v>434.8032836914062</v>
       </c>
       <c r="AR65" t="n">
-        <v>362.8514099121094</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>355.6678771972656</v>
+        <v>308.6147766113281</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:44">
       <c r="A66" s="2" t="n">
         <v>43615</v>
       </c>
@@ -9527,34 +9329,31 @@
         <v>289</v>
       </c>
       <c r="AK66" t="n">
-        <v>464.8082275390625</v>
+        <v>450.4187622070312</v>
       </c>
       <c r="AL66" t="n">
-        <v>465.1156616210938</v>
+        <v>401.05126953125</v>
       </c>
       <c r="AM66" t="n">
-        <v>437.6168518066406</v>
+        <v>401.05126953125</v>
       </c>
       <c r="AN66" t="n">
-        <v>449.8212890625</v>
+        <v>425.1213989257812</v>
       </c>
       <c r="AO66" t="n">
-        <v>411.0932312011719</v>
+        <v>484.2618103027344</v>
       </c>
       <c r="AP66" t="n">
-        <v>371.1986694335938</v>
+        <v>396.1406860351562</v>
       </c>
       <c r="AQ66" t="n">
-        <v>411.0932312011719</v>
+        <v>401.8909301757812</v>
       </c>
       <c r="AR66" t="n">
-        <v>371.1986694335938</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>342.2381896972656</v>
+        <v>315.5115661621094</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:44">
       <c r="A67" s="2" t="n">
         <v>43616</v>
       </c>
@@ -9664,36 +9463,33 @@
         <v>63</v>
       </c>
       <c r="AK67" t="n">
-        <v>312.1995239257812</v>
+        <v>203.4859466552734</v>
       </c>
       <c r="AL67" t="n">
-        <v>266.5486145019531</v>
+        <v>302.4133911132812</v>
       </c>
       <c r="AM67" t="n">
-        <v>304.2127685546875</v>
+        <v>302.4133911132812</v>
       </c>
       <c r="AN67" t="n">
-        <v>289.5122375488281</v>
+        <v>314.1206359863281</v>
       </c>
       <c r="AO67" t="n">
-        <v>238.9609832763672</v>
+        <v>319.6441040039062</v>
       </c>
       <c r="AP67" t="n">
-        <v>332.1422119140625</v>
+        <v>209.3778991699219</v>
       </c>
       <c r="AQ67" t="n">
-        <v>238.9609832763672</v>
+        <v>230.4756774902344</v>
       </c>
       <c r="AR67" t="n">
-        <v>332.1422119140625</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>311.8949279785156</v>
+        <v>298.9993591308594</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:44">
       <c r="A68" s="2" t="n">
-        <v>43530</v>
+        <v>43619</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -9801,36 +9597,33 @@
         <v>274</v>
       </c>
       <c r="AK68" t="n">
-        <v>274.3372802734375</v>
+        <v>241.9202575683594</v>
       </c>
       <c r="AL68" t="n">
-        <v>275.5330810546875</v>
+        <v>297.5029907226562</v>
       </c>
       <c r="AM68" t="n">
-        <v>210.5293731689453</v>
+        <v>297.5029907226562</v>
       </c>
       <c r="AN68" t="n">
-        <v>244.9222259521484</v>
+        <v>221.6915435791016</v>
       </c>
       <c r="AO68" t="n">
-        <v>265.6138916015625</v>
+        <v>309.4361572265625</v>
       </c>
       <c r="AP68" t="n">
-        <v>369.8819274902344</v>
+        <v>315.9844360351562</v>
       </c>
       <c r="AQ68" t="n">
-        <v>265.6138916015625</v>
+        <v>340.7286376953125</v>
       </c>
       <c r="AR68" t="n">
-        <v>369.8819274902344</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>308.3614501953125</v>
+        <v>344.3883361816406</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:44">
       <c r="A69" s="2" t="n">
-        <v>43561</v>
+        <v>43620</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -9938,36 +9731,33 @@
         <v>344</v>
       </c>
       <c r="AK69" t="n">
-        <v>218.2111511230469</v>
+        <v>145.8018951416016</v>
       </c>
       <c r="AL69" t="n">
-        <v>184.8297729492188</v>
+        <v>238.2927398681641</v>
       </c>
       <c r="AM69" t="n">
-        <v>154.6595306396484</v>
+        <v>238.2927398681641</v>
       </c>
       <c r="AN69" t="n">
-        <v>29.15658187866211</v>
+        <v>195.4298706054688</v>
       </c>
       <c r="AO69" t="n">
-        <v>179.6900939941406</v>
+        <v>-68.94920349121094</v>
       </c>
       <c r="AP69" t="n">
-        <v>333.6809387207031</v>
+        <v>239.7661895751953</v>
       </c>
       <c r="AQ69" t="n">
-        <v>179.6900939941406</v>
+        <v>213.0697937011719</v>
       </c>
       <c r="AR69" t="n">
-        <v>333.6809387207031</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>198.6141052246094</v>
+        <v>295.1781616210938</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:44">
       <c r="A70" s="2" t="n">
-        <v>43591</v>
+        <v>43621</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -10075,34 +9865,31 @@
         <v>283</v>
       </c>
       <c r="AK70" t="n">
-        <v>72.73141479492188</v>
+        <v>69.87949371337891</v>
       </c>
       <c r="AL70" t="n">
-        <v>73.14913940429688</v>
+        <v>188.2344970703125</v>
       </c>
       <c r="AM70" t="n">
-        <v>23.84636116027832</v>
+        <v>188.2344970703125</v>
       </c>
       <c r="AN70" t="n">
-        <v>127.0145874023438</v>
+        <v>156.1247863769531</v>
       </c>
       <c r="AO70" t="n">
-        <v>167.6320648193359</v>
+        <v>178.18994140625</v>
       </c>
       <c r="AP70" t="n">
-        <v>296.9172058105469</v>
+        <v>209.5379638671875</v>
       </c>
       <c r="AQ70" t="n">
-        <v>167.6320648193359</v>
+        <v>171.1360321044922</v>
       </c>
       <c r="AR70" t="n">
-        <v>296.9172058105469</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>160.5538635253906</v>
+        <v>268.1373901367188</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:44">
       <c r="A71" s="2" t="n">
         <v>43622</v>
       </c>
@@ -10212,36 +9999,33 @@
         <v>7</v>
       </c>
       <c r="AK71" t="n">
-        <v>109.8157424926758</v>
+        <v>77.91642761230469</v>
       </c>
       <c r="AL71" t="n">
-        <v>105.9009399414062</v>
+        <v>156.1443023681641</v>
       </c>
       <c r="AM71" t="n">
-        <v>32.04568481445312</v>
+        <v>156.1443023681641</v>
       </c>
       <c r="AN71" t="n">
-        <v>98.88909912109375</v>
+        <v>24.06795310974121</v>
       </c>
       <c r="AO71" t="n">
-        <v>146.9758758544922</v>
+        <v>31.43098068237305</v>
       </c>
       <c r="AP71" t="n">
-        <v>265.54052734375</v>
+        <v>135.9332733154297</v>
       </c>
       <c r="AQ71" t="n">
-        <v>146.9758758544922</v>
+        <v>134.9716796875</v>
       </c>
       <c r="AR71" t="n">
-        <v>265.54052734375</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>112.5052795410156</v>
+        <v>224.7001342773438</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:44">
       <c r="A72" s="2" t="n">
-        <v>43652</v>
+        <v>43623</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -10349,36 +10133,33 @@
         <v>65</v>
       </c>
       <c r="AK72" t="n">
-        <v>107.8321838378906</v>
+        <v>128.5617828369141</v>
       </c>
       <c r="AL72" t="n">
-        <v>41.20809555053711</v>
+        <v>163.0763854980469</v>
       </c>
       <c r="AM72" t="n">
-        <v>92.85221099853516</v>
+        <v>163.0763854980469</v>
       </c>
       <c r="AN72" t="n">
-        <v>90.96926116943359</v>
+        <v>50.56216430664062</v>
       </c>
       <c r="AO72" t="n">
-        <v>160.8704986572266</v>
+        <v>61.2076301574707</v>
       </c>
       <c r="AP72" t="n">
-        <v>270.5097045898438</v>
+        <v>175.8639068603516</v>
       </c>
       <c r="AQ72" t="n">
-        <v>160.8704986572266</v>
+        <v>142.1486663818359</v>
       </c>
       <c r="AR72" t="n">
-        <v>270.5097045898438</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>156.0125885009766</v>
+        <v>256.2090454101562</v>
       </c>
     </row>
-    <row r="73" spans="1:45">
+    <row r="73" spans="1:44">
       <c r="A73" s="2" t="n">
-        <v>43744</v>
+        <v>43626</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -10486,36 +10267,33 @@
         <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>167.8729400634766</v>
+        <v>194.4720458984375</v>
       </c>
       <c r="AL73" t="n">
-        <v>129.2029724121094</v>
+        <v>165.5040435791016</v>
       </c>
       <c r="AM73" t="n">
-        <v>64.41687774658203</v>
+        <v>165.5040435791016</v>
       </c>
       <c r="AN73" t="n">
-        <v>169.2977600097656</v>
+        <v>113.7197570800781</v>
       </c>
       <c r="AO73" t="n">
-        <v>158.0496978759766</v>
+        <v>231.5646514892578</v>
       </c>
       <c r="AP73" t="n">
-        <v>267.2904052734375</v>
+        <v>162.1490173339844</v>
       </c>
       <c r="AQ73" t="n">
-        <v>158.0496978759766</v>
+        <v>139.1334838867188</v>
       </c>
       <c r="AR73" t="n">
-        <v>267.2904052734375</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>176.1994934082031</v>
+        <v>250.4095306396484</v>
       </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:44">
       <c r="A74" s="2" t="n">
-        <v>43775</v>
+        <v>43627</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -10623,36 +10401,33 @@
         <v>36</v>
       </c>
       <c r="AK74" t="n">
-        <v>408.3402709960938</v>
+        <v>400.0551147460938</v>
       </c>
       <c r="AL74" t="n">
-        <v>405.6513366699219</v>
+        <v>240.7053527832031</v>
       </c>
       <c r="AM74" t="n">
-        <v>440.3974304199219</v>
+        <v>240.7053527832031</v>
       </c>
       <c r="AN74" t="n">
-        <v>368.8956909179688</v>
+        <v>478.326416015625</v>
       </c>
       <c r="AO74" t="n">
-        <v>307.2545776367188</v>
+        <v>394.65283203125</v>
       </c>
       <c r="AP74" t="n">
-        <v>289.1185302734375</v>
+        <v>293.6121215820312</v>
       </c>
       <c r="AQ74" t="n">
-        <v>307.2545776367188</v>
+        <v>361.6431274414062</v>
       </c>
       <c r="AR74" t="n">
-        <v>289.1185302734375</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>235.7057189941406</v>
+        <v>274.5617980957031</v>
       </c>
     </row>
-    <row r="75" spans="1:45">
+    <row r="75" spans="1:44">
       <c r="A75" s="2" t="n">
-        <v>43805</v>
+        <v>43628</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -10760,34 +10535,31 @@
         <v>83</v>
       </c>
       <c r="AK75" t="n">
-        <v>409.7398986816406</v>
+        <v>415.6819152832031</v>
       </c>
       <c r="AL75" t="n">
-        <v>407.3462219238281</v>
+        <v>316.8004150390625</v>
       </c>
       <c r="AM75" t="n">
-        <v>435.8755493164062</v>
+        <v>316.8004150390625</v>
       </c>
       <c r="AN75" t="n">
-        <v>417.9730529785156</v>
+        <v>364.5087890625</v>
       </c>
       <c r="AO75" t="n">
-        <v>394.5501403808594</v>
+        <v>419.8414916992188</v>
       </c>
       <c r="AP75" t="n">
-        <v>312.5322570800781</v>
+        <v>366.1939697265625</v>
       </c>
       <c r="AQ75" t="n">
-        <v>394.5501403808594</v>
+        <v>428.4276123046875</v>
       </c>
       <c r="AR75" t="n">
-        <v>312.5322570800781</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>267.1614685058594</v>
+        <v>280.2249145507812</v>
       </c>
     </row>
-    <row r="76" spans="1:45">
+    <row r="76" spans="1:44">
       <c r="A76" s="2" t="n">
         <v>43629</v>
       </c>
@@ -10897,34 +10669,31 @@
         <v>33</v>
       </c>
       <c r="AK76" t="n">
-        <v>353.119384765625</v>
+        <v>370.5531005859375</v>
       </c>
       <c r="AL76" t="n">
-        <v>363.7664184570312</v>
+        <v>327.8052062988281</v>
       </c>
       <c r="AM76" t="n">
-        <v>270.2128295898438</v>
+        <v>327.8052062988281</v>
       </c>
       <c r="AN76" t="n">
-        <v>357.0522155761719</v>
+        <v>407.5982666015625</v>
       </c>
       <c r="AO76" t="n">
-        <v>339.8807983398438</v>
+        <v>309.3719482421875</v>
       </c>
       <c r="AP76" t="n">
-        <v>338.7903747558594</v>
+        <v>325.9146728515625</v>
       </c>
       <c r="AQ76" t="n">
-        <v>339.8807983398438</v>
+        <v>337.7539978027344</v>
       </c>
       <c r="AR76" t="n">
-        <v>338.7903747558594</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>323.3584289550781</v>
+        <v>307.2562561035156</v>
       </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:44">
       <c r="A77" s="2" t="n">
         <v>43633</v>
       </c>
@@ -11034,34 +10803,31 @@
         <v>58</v>
       </c>
       <c r="AK77" t="n">
-        <v>345.7212524414062</v>
+        <v>316.4815979003906</v>
       </c>
       <c r="AL77" t="n">
-        <v>357.7225036621094</v>
+        <v>364.2742004394531</v>
       </c>
       <c r="AM77" t="n">
-        <v>330.1564636230469</v>
+        <v>364.2742004394531</v>
       </c>
       <c r="AN77" t="n">
-        <v>306.5798034667969</v>
+        <v>323.2283935546875</v>
       </c>
       <c r="AO77" t="n">
-        <v>352.8078918457031</v>
+        <v>337.4866638183594</v>
       </c>
       <c r="AP77" t="n">
-        <v>361.4512329101562</v>
+        <v>333.47021484375</v>
       </c>
       <c r="AQ77" t="n">
-        <v>352.8078918457031</v>
+        <v>355.1639404296875</v>
       </c>
       <c r="AR77" t="n">
-        <v>361.4512329101562</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>363.0551147460938</v>
+        <v>333.4683227539062</v>
       </c>
     </row>
-    <row r="78" spans="1:45">
+    <row r="78" spans="1:44">
       <c r="A78" s="2" t="n">
         <v>43634</v>
       </c>
@@ -11171,34 +10937,31 @@
         <v>258</v>
       </c>
       <c r="AK78" t="n">
-        <v>387.4665832519531</v>
+        <v>407.5746765136719</v>
       </c>
       <c r="AL78" t="n">
-        <v>379.2347717285156</v>
+        <v>406.7864685058594</v>
       </c>
       <c r="AM78" t="n">
-        <v>393.0589904785156</v>
+        <v>406.7864685058594</v>
       </c>
       <c r="AN78" t="n">
-        <v>371.7480163574219</v>
+        <v>405.292724609375</v>
       </c>
       <c r="AO78" t="n">
-        <v>396.8691711425781</v>
+        <v>367.4401550292969</v>
       </c>
       <c r="AP78" t="n">
-        <v>380.7698974609375</v>
+        <v>410.1001281738281</v>
       </c>
       <c r="AQ78" t="n">
-        <v>396.8691711425781</v>
+        <v>425.2955932617188</v>
       </c>
       <c r="AR78" t="n">
-        <v>380.7698974609375</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>367.9634094238281</v>
+        <v>339.6573486328125</v>
       </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:44">
       <c r="A79" s="2" t="n">
         <v>43635</v>
       </c>
@@ -11308,34 +11071,31 @@
         <v>375</v>
       </c>
       <c r="AK79" t="n">
-        <v>444.6710205078125</v>
+        <v>467.4042053222656</v>
       </c>
       <c r="AL79" t="n">
-        <v>446.2019348144531</v>
+        <v>429.1434020996094</v>
       </c>
       <c r="AM79" t="n">
-        <v>413.989013671875</v>
+        <v>429.1434020996094</v>
       </c>
       <c r="AN79" t="n">
-        <v>434.9261779785156</v>
+        <v>419.8721008300781</v>
       </c>
       <c r="AO79" t="n">
-        <v>427.2919921875</v>
+        <v>440.8833923339844</v>
       </c>
       <c r="AP79" t="n">
-        <v>382.2750549316406</v>
+        <v>421.2566528320312</v>
       </c>
       <c r="AQ79" t="n">
-        <v>427.2919921875</v>
+        <v>423.4183654785156</v>
       </c>
       <c r="AR79" t="n">
-        <v>382.2750549316406</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>381.6416625976562</v>
+        <v>339.4346313476562</v>
       </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:44">
       <c r="A80" s="2" t="n">
         <v>43640</v>
       </c>
@@ -11445,34 +11205,31 @@
         <v>230</v>
       </c>
       <c r="AK80" t="n">
-        <v>359.5773315429688</v>
+        <v>364.2473754882812</v>
       </c>
       <c r="AL80" t="n">
-        <v>321.6837463378906</v>
+        <v>381.55419921875</v>
       </c>
       <c r="AM80" t="n">
-        <v>387.6958312988281</v>
+        <v>381.55419921875</v>
       </c>
       <c r="AN80" t="n">
-        <v>330.6247253417969</v>
+        <v>357.2354125976562</v>
       </c>
       <c r="AO80" t="n">
-        <v>360.7926025390625</v>
+        <v>332.1978149414062</v>
       </c>
       <c r="AP80" t="n">
-        <v>367.9157409667969</v>
+        <v>322.0640563964844</v>
       </c>
       <c r="AQ80" t="n">
-        <v>360.7926025390625</v>
+        <v>352.0215148925781</v>
       </c>
       <c r="AR80" t="n">
-        <v>367.9157409667969</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>344.3273010253906</v>
+        <v>338.79736328125</v>
       </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:44">
       <c r="A81" s="2" t="n">
         <v>43641</v>
       </c>
@@ -11582,34 +11339,31 @@
         <v>323</v>
       </c>
       <c r="AK81" t="n">
-        <v>413.789306640625</v>
+        <v>440.2342529296875</v>
       </c>
       <c r="AL81" t="n">
-        <v>416.4800415039062</v>
+        <v>387.8365478515625</v>
       </c>
       <c r="AM81" t="n">
-        <v>400.3528442382812</v>
+        <v>387.8365478515625</v>
       </c>
       <c r="AN81" t="n">
-        <v>407.5117797851562</v>
+        <v>414.7218017578125</v>
       </c>
       <c r="AO81" t="n">
-        <v>362.3890075683594</v>
+        <v>397.0034484863281</v>
       </c>
       <c r="AP81" t="n">
-        <v>362.959228515625</v>
+        <v>326.4209594726562</v>
       </c>
       <c r="AQ81" t="n">
-        <v>362.3890075683594</v>
+        <v>377.6465759277344</v>
       </c>
       <c r="AR81" t="n">
-        <v>362.959228515625</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>325.89892578125</v>
+        <v>330.1148071289062</v>
       </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:44">
       <c r="A82" s="2" t="n">
         <v>43642</v>
       </c>
@@ -11719,34 +11473,31 @@
         <v>257</v>
       </c>
       <c r="AK82" t="n">
-        <v>382.2520751953125</v>
+        <v>392.1755065917969</v>
       </c>
       <c r="AL82" t="n">
-        <v>344.7907409667969</v>
+        <v>363.301513671875</v>
       </c>
       <c r="AM82" t="n">
-        <v>385.7060241699219</v>
+        <v>363.301513671875</v>
       </c>
       <c r="AN82" t="n">
-        <v>358.5274047851562</v>
+        <v>387.9439086914062</v>
       </c>
       <c r="AO82" t="n">
-        <v>343.4966430664062</v>
+        <v>389.0318908691406</v>
       </c>
       <c r="AP82" t="n">
-        <v>351.398681640625</v>
+        <v>301.4232482910156</v>
       </c>
       <c r="AQ82" t="n">
-        <v>343.4966430664062</v>
+        <v>338.33642578125</v>
       </c>
       <c r="AR82" t="n">
-        <v>351.398681640625</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>332.544189453125</v>
+        <v>332.8763427734375</v>
       </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:44">
       <c r="A83" s="2" t="n">
         <v>43643</v>
       </c>
@@ -11856,34 +11607,31 @@
         <v>308</v>
       </c>
       <c r="AK83" t="n">
-        <v>370.9375915527344</v>
+        <v>406.8604125976562</v>
       </c>
       <c r="AL83" t="n">
-        <v>386.7262878417969</v>
+        <v>350.9897155761719</v>
       </c>
       <c r="AM83" t="n">
-        <v>350.638427734375</v>
+        <v>350.9897155761719</v>
       </c>
       <c r="AN83" t="n">
-        <v>313.4190368652344</v>
+        <v>363.4533386230469</v>
       </c>
       <c r="AO83" t="n">
-        <v>345.1956787109375</v>
+        <v>380.3522338867188</v>
       </c>
       <c r="AP83" t="n">
-        <v>350.1541748046875</v>
+        <v>320.4836730957031</v>
       </c>
       <c r="AQ83" t="n">
-        <v>345.1956787109375</v>
+        <v>332.1062316894531</v>
       </c>
       <c r="AR83" t="n">
-        <v>350.1541748046875</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>336.4212646484375</v>
+        <v>311.9183349609375</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:44">
       <c r="A84" s="2" t="n">
         <v>43644</v>
       </c>
@@ -11993,36 +11741,33 @@
         <v>175</v>
       </c>
       <c r="AK84" t="n">
-        <v>287.0977172851562</v>
+        <v>329.3825378417969</v>
       </c>
       <c r="AL84" t="n">
-        <v>310.8831176757812</v>
+        <v>308.5724792480469</v>
       </c>
       <c r="AM84" t="n">
-        <v>264.8412170410156</v>
+        <v>308.5724792480469</v>
       </c>
       <c r="AN84" t="n">
-        <v>283.0682983398438</v>
+        <v>300.9990234375</v>
       </c>
       <c r="AO84" t="n">
-        <v>312.4197082519531</v>
+        <v>279.0801086425781</v>
       </c>
       <c r="AP84" t="n">
-        <v>340.3055419921875</v>
+        <v>290.9480590820312</v>
       </c>
       <c r="AQ84" t="n">
-        <v>312.4197082519531</v>
+        <v>314.0428161621094</v>
       </c>
       <c r="AR84" t="n">
-        <v>340.3055419921875</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>317.8935546875</v>
+        <v>296.7104187011719</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:44">
       <c r="A85" s="2" t="n">
-        <v>43472</v>
+        <v>43647</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -12130,36 +11875,33 @@
         <v>204</v>
       </c>
       <c r="AK85" t="n">
-        <v>244.0681915283203</v>
+        <v>218.8811798095703</v>
       </c>
       <c r="AL85" t="n">
-        <v>247.1009674072266</v>
+        <v>261.5373840332031</v>
       </c>
       <c r="AM85" t="n">
-        <v>271.8316650390625</v>
+        <v>261.5373840332031</v>
       </c>
       <c r="AN85" t="n">
-        <v>213.5007019042969</v>
+        <v>197.9366455078125</v>
       </c>
       <c r="AO85" t="n">
-        <v>251.4223937988281</v>
+        <v>233.8109283447266</v>
       </c>
       <c r="AP85" t="n">
-        <v>327.4627075195312</v>
+        <v>223.6932525634766</v>
       </c>
       <c r="AQ85" t="n">
-        <v>251.4223937988281</v>
+        <v>230.2925109863281</v>
       </c>
       <c r="AR85" t="n">
-        <v>327.4627075195312</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>259.8772583007812</v>
+        <v>341.2807922363281</v>
       </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:44">
       <c r="A86" s="2" t="n">
-        <v>43503</v>
+        <v>43648</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -12267,36 +12009,33 @@
         <v>189</v>
       </c>
       <c r="AK86" t="n">
-        <v>193.5164031982422</v>
+        <v>196.0317687988281</v>
       </c>
       <c r="AL86" t="n">
-        <v>176.3992919921875</v>
+        <v>224.7759094238281</v>
       </c>
       <c r="AM86" t="n">
-        <v>260.634521484375</v>
+        <v>224.7759094238281</v>
       </c>
       <c r="AN86" t="n">
-        <v>128.5805816650391</v>
+        <v>194.30078125</v>
       </c>
       <c r="AO86" t="n">
-        <v>187.9366149902344</v>
+        <v>125.7031707763672</v>
       </c>
       <c r="AP86" t="n">
-        <v>294.9568481445312</v>
+        <v>208.1723022460938</v>
       </c>
       <c r="AQ86" t="n">
-        <v>187.9366149902344</v>
+        <v>178.8442840576172</v>
       </c>
       <c r="AR86" t="n">
-        <v>294.9568481445312</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>207.1863555908203</v>
+        <v>313.7452087402344</v>
       </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:44">
       <c r="A87" s="2" t="n">
-        <v>43531</v>
+        <v>43649</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -12404,36 +12143,33 @@
         <v>167</v>
       </c>
       <c r="AK87" t="n">
-        <v>158.52978515625</v>
+        <v>187.8176422119141</v>
       </c>
       <c r="AL87" t="n">
-        <v>113.765007019043</v>
+        <v>172.2140808105469</v>
       </c>
       <c r="AM87" t="n">
-        <v>159.5341339111328</v>
+        <v>172.2140808105469</v>
       </c>
       <c r="AN87" t="n">
-        <v>118.4291687011719</v>
+        <v>151.18408203125</v>
       </c>
       <c r="AO87" t="n">
-        <v>154.2340393066406</v>
+        <v>137.5271453857422</v>
       </c>
       <c r="AP87" t="n">
-        <v>272.9772338867188</v>
+        <v>190.1346740722656</v>
       </c>
       <c r="AQ87" t="n">
-        <v>154.2340393066406</v>
+        <v>156.7523498535156</v>
       </c>
       <c r="AR87" t="n">
-        <v>272.9772338867188</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>177.5164031982422</v>
+        <v>295.456298828125</v>
       </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:44">
       <c r="A88" s="2" t="n">
-        <v>43562</v>
+        <v>43650</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -12541,36 +12277,33 @@
         <v>156</v>
       </c>
       <c r="AK88" t="n">
-        <v>104.6419372558594</v>
+        <v>142.2216033935547</v>
       </c>
       <c r="AL88" t="n">
-        <v>55.99127578735352</v>
+        <v>144.6111602783203</v>
       </c>
       <c r="AM88" t="n">
-        <v>67.79084777832031</v>
+        <v>144.6111602783203</v>
       </c>
       <c r="AN88" t="n">
-        <v>94.47919464111328</v>
+        <v>54.05269241333008</v>
       </c>
       <c r="AO88" t="n">
-        <v>156.5422973632812</v>
+        <v>37.99961853027344</v>
       </c>
       <c r="AP88" t="n">
-        <v>270.7164306640625</v>
+        <v>203.0458374023438</v>
       </c>
       <c r="AQ88" t="n">
-        <v>156.5422973632812</v>
+        <v>174.4239349365234</v>
       </c>
       <c r="AR88" t="n">
-        <v>270.7164306640625</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>184.2669830322266</v>
+        <v>277.8329162597656</v>
       </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:44">
       <c r="A89" s="2" t="n">
-        <v>43592</v>
+        <v>43651</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -12678,31 +12411,28 @@
         <v>26</v>
       </c>
       <c r="AK89" t="n">
-        <v>113.4221496582031</v>
+        <v>139.8054809570312</v>
       </c>
       <c r="AL89" t="n">
-        <v>56.49826812744141</v>
+        <v>122.7050247192383</v>
       </c>
       <c r="AM89" t="n">
-        <v>77.20479583740234</v>
+        <v>122.7050247192383</v>
       </c>
       <c r="AN89" t="n">
-        <v>72.37796020507812</v>
+        <v>73.13862609863281</v>
       </c>
       <c r="AO89" t="n">
-        <v>104.71875</v>
+        <v>94.95233154296875</v>
       </c>
       <c r="AP89" t="n">
-        <v>261.5514221191406</v>
+        <v>171.6683959960938</v>
       </c>
       <c r="AQ89" t="n">
-        <v>104.71875</v>
+        <v>18.64270210266113</v>
       </c>
       <c r="AR89" t="n">
-        <v>261.5514221191406</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>117.9950408935547</v>
+        <v>225.4502105712891</v>
       </c>
     </row>
   </sheetData>
